--- a/NOMINAS IPPI/Personal.xlsx
+++ b/NOMINAS IPPI/Personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPPI 11\Documents\GitHub\templates\NOMINAS IPPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DBF4F6-0CAA-4B93-8F1F-E68B417573A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E495DFD-F726-41BE-A04B-E5BE8955204B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6709" uniqueCount="2488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6710" uniqueCount="2489">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -7494,6 +7494,9 @@
   </si>
   <si>
     <t xml:space="preserve">CATEGORÍA </t>
+  </si>
+  <si>
+    <t>temp</t>
   </si>
 </sst>
 </file>
@@ -7659,7 +7662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -7695,6 +7698,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7705,7 +7721,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8060,6 +8076,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -8070,7 +8092,7 @@
     <cellStyle name="Normal 56 2" xfId="5" xr:uid="{78206DE9-D528-4C4A-BC20-D69BF13C6C6C}"/>
     <cellStyle name="Normal_Hoja1" xfId="4" xr:uid="{DF659AC0-5120-4414-9280-AF93D0C814A2}"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="70">
     <dxf>
       <font>
         <strike val="0"/>
@@ -8085,220 +8107,8 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -9570,6 +9380,96 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9981,6 +9881,96 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -10090,6 +10080,68 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -10169,74 +10221,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60570CBC-63D1-448D-B5B8-8F6C94EC3D5A}" name="Tabla1" displayName="Tabla1" ref="A1:BM326" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
-  <autoFilter ref="A1:BM326" xr:uid="{60570CBC-63D1-448D-B5B8-8F6C94EC3D5A}"/>
-  <tableColumns count="65">
-    <tableColumn id="1" xr3:uid="{39ADAAFA-48E1-4345-856B-4D3B0E7B0397}" name="EXPEDIENTE" dataDxfId="3" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" xr3:uid="{F1FF441F-0F11-41E2-8DA0-62F9C8A90988}" name="No. PLAZA" dataDxfId="4" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" xr3:uid="{C4EB8793-2B7D-45E3-8F3B-D2F876BE7ED3}" name="NO. DE MOVIMIENO DE PERSONAL " dataDxfId="64" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" xr3:uid="{249FA547-98A2-4BFA-9439-1D2A7750D660}" name="Columna1" dataDxfId="63" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" xr3:uid="{11189D97-218E-4788-AEC8-29F8137E3F92}" name="NOMBRE" dataDxfId="62" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" xr3:uid="{B50DB44A-D70C-4FA1-8308-740D35175DE6}" name="CURP" dataDxfId="61" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" xr3:uid="{55E48833-EF35-4A4D-A864-2E435174F639}" name="RFC" dataDxfId="7" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" xr3:uid="{7263FC09-4CE0-4782-BD05-7FF34FF61BF0}" name="CATEGORIA" dataDxfId="5" dataCellStyle="Normal 3"/>
-    <tableColumn id="9" xr3:uid="{F6E0161C-E250-44F3-A03E-27AEE816686C}" name="DESCRIPCION DEL PUESTO" dataDxfId="6" dataCellStyle="Normal 3"/>
-    <tableColumn id="10" xr3:uid="{66B1B4A9-2FF9-4FC7-8407-0A5BBAD675A6}" name="AREA" dataDxfId="60" dataCellStyle="Normal 3"/>
-    <tableColumn id="11" xr3:uid="{9828C5C7-0D1B-493B-BC27-4A02A1EAAB8E}" name="ADSCRIPCIÓN FÍSICA" dataDxfId="59" dataCellStyle="Normal 3"/>
-    <tableColumn id="12" xr3:uid="{6937F488-249C-4EF6-BA30-40A37F931889}" name="ESTATUS" dataDxfId="58" dataCellStyle="Normal 3"/>
-    <tableColumn id="13" xr3:uid="{8F613E6B-4C39-481F-AEE8-56BE5F319D6A}" name="FECHA DE INGRESO" dataDxfId="57" dataCellStyle="Normal 3"/>
-    <tableColumn id="14" xr3:uid="{1BFF8B17-31EE-410C-A3B2-86FC3B212DEC}" name="CAMBIO DE CATEGORIA" dataDxfId="56" dataCellStyle="Normal 3"/>
-    <tableColumn id="15" xr3:uid="{AC621029-ED30-4D21-A0EF-5D4AFD16CE5F}" name="BAJA" dataDxfId="55" dataCellStyle="Normal 3"/>
-    <tableColumn id="16" xr3:uid="{06D4608B-6F6D-4817-8B26-F8FCD7BCB4CF}" name="FECHA DE REINGRESO" dataDxfId="54" dataCellStyle="Normal 3"/>
-    <tableColumn id="17" xr3:uid="{B630DDA3-AB0C-41B9-B5D3-5B515F942AA8}" name="RÉGIMEN DE CONTRATACIÓN" dataDxfId="53" dataCellStyle="Normal 3"/>
-    <tableColumn id="18" xr3:uid="{FABE71DA-EBE0-498E-8886-3AA2889B64CB}" name="Columna2" dataDxfId="52" dataCellStyle="Normal 3"/>
-    <tableColumn id="19" xr3:uid="{684FCC6E-35ED-4B2B-8BBF-ED11A7E46360}" name="SEXO" dataDxfId="51" dataCellStyle="Normal 3"/>
-    <tableColumn id="20" xr3:uid="{EF57BE10-E370-416E-95D3-425C2B594BA8}" name="CUMPLEAÑOS" dataDxfId="50" dataCellStyle="Normal 3"/>
-    <tableColumn id="21" xr3:uid="{19790762-E7B8-4D88-8CE5-F9E4AC40679C}" name="Columna3" dataDxfId="49" dataCellStyle="Normal 3"/>
-    <tableColumn id="22" xr3:uid="{6FDBC7B6-2802-4C1B-ADDF-B038E72141D8}" name="EDAD" dataDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{DF0EA22F-1312-4F4B-B561-FC6035DD82B9}" name="AFILIACIÓN ISSSTEP" dataDxfId="2" dataCellStyle="Normal 3"/>
-    <tableColumn id="24" xr3:uid="{9E5FCC2D-6504-4D83-BBBB-46C8F2BF17B2}" name="CENTRO DE COSTOS" dataDxfId="0" dataCellStyle="Normal 3"/>
-    <tableColumn id="25" xr3:uid="{32F87FF4-E66D-4724-9801-0D6A30AA78F9}" name="SALARIO DIARIO" dataDxfId="1" dataCellStyle="Normal 3"/>
-    <tableColumn id="26" xr3:uid="{C80547CE-E0F2-4A3A-9053-C9F6425AFF02}" name="SUELDO QUINCENAL" dataDxfId="47" dataCellStyle="Normal 3"/>
-    <tableColumn id="27" xr3:uid="{BF3C9787-0135-4B1D-9F2B-610F35822041}" name="SUELDO p-07 (1132)" dataDxfId="46" dataCellStyle="Normal 3"/>
-    <tableColumn id="28" xr3:uid="{F1BB0BDE-2BE7-4A8E-865D-C43ACE1366CA}" name="DESPENSA (38)" dataDxfId="45" dataCellStyle="Normal 3"/>
-    <tableColumn id="29" xr3:uid="{9BAFB633-B847-4DB1-B38E-9405F53457B7}" name="COMPENSACIÓN ESPECIAL (51)" dataDxfId="44" dataCellStyle="Normal 3"/>
-    <tableColumn id="30" xr3:uid="{1813D8AE-FD8F-4DAA-ADFC-E72F9C4894C3}" name="AYUDA DE VARIOS (56)" dataDxfId="43" dataCellStyle="Normal 3"/>
-    <tableColumn id="31" xr3:uid="{2445D102-B29E-45C5-B971-936AB57F4193}" name="PUNTUALIDAD Y ASISTENCIA (69)" dataDxfId="42" dataCellStyle="Normal 3"/>
-    <tableColumn id="32" xr3:uid="{947387FA-7164-4826-8034-0FF4E80CA5FD}" name="QUINQUENIO (C1/C6)" dataDxfId="41" dataCellStyle="Normal 3"/>
-    <tableColumn id="33" xr3:uid="{090A493F-C0B2-4675-B46B-68A932386D8D}" name="APOYO A LA ECONOMÍA(EM)" dataDxfId="40" dataCellStyle="Normal 3"/>
-    <tableColumn id="34" xr3:uid="{4764767A-32DD-414A-9114-D7A5D278D021}" name="APOYO AL TRANSPORTE(TR)" dataDxfId="39" dataCellStyle="Normal 3"/>
-    <tableColumn id="35" xr3:uid="{C5F16B07-4AED-442C-9BB9-0340F96222A0}" name="COMPENSACIÓN (J5)" dataDxfId="38" dataCellStyle="Normal 3"/>
-    <tableColumn id="36" xr3:uid="{A20FBDA9-1BA3-4170-9984-9DF365D4BE5D}" name="TOTAL PERCEPCIONES MENSUALES" dataDxfId="37" dataCellStyle="Normal 3"/>
-    <tableColumn id="37" xr3:uid="{22EAB820-171C-4246-9564-74D5EF37A4DD}" name="ISR" dataDxfId="36" dataCellStyle="Normal 3"/>
-    <tableColumn id="38" xr3:uid="{4986657C-8166-433C-94BE-43170F9D4E42}" name="ISSSTEP CUOTA QUINCENAL 13%" dataDxfId="35" dataCellStyle="Normal 3"/>
-    <tableColumn id="39" xr3:uid="{F4BEFF1E-896D-4C98-91C9-23007B189B9E}" name="ISSSTEP CUOTA MENSUAL 13%" dataDxfId="34" dataCellStyle="Normal 3"/>
-    <tableColumn id="40" xr3:uid="{9138AB37-8234-4C1F-9EC2-A9920D5E3495}" name="TOTAL DEDUCCCIONES MENSUALES" dataDxfId="33" dataCellStyle="Normal 3"/>
-    <tableColumn id="41" xr3:uid="{C268CE6C-3D36-4480-B305-E3EFA9ABEE6E}" name="NETO MENSUAL" dataDxfId="32" dataCellStyle="Normal 3"/>
-    <tableColumn id="42" xr3:uid="{F78E824B-B31E-4B9C-B482-07CD999A0E99}" name="GRATIFICACIÓN DE FIN DE AÑO (24)" dataDxfId="31" dataCellStyle="Millares 2"/>
-    <tableColumn id="43" xr3:uid="{885828D7-E7E8-43F0-9642-924BEF004E69}" name="AGUINALDO (J5)" dataDxfId="30" dataCellStyle="Normal 3"/>
-    <tableColumn id="44" xr3:uid="{416447DD-F337-4898-AEA1-F7E3BEC0CA9D}" name="PRIMA VACACIONAL PARCIAL(32)" dataDxfId="29" dataCellStyle="Millares 2"/>
-    <tableColumn id="45" xr3:uid="{F01B56AB-4079-4601-AB3F-1FFDB614D4E7}" name="ÚTILES ESCOLARES (55)" dataDxfId="28" dataCellStyle="Millares 2"/>
-    <tableColumn id="46" xr3:uid="{C29DFCFE-C364-4E1B-9269-1672CAAAD497}" name="ESTIMULOS (BE)" dataDxfId="27" dataCellStyle="Millares 2"/>
-    <tableColumn id="47" xr3:uid="{A0EF1BE3-22E3-4E7A-8271-AC1DC3488EBB}" name="ESTIMULO DÍA DEL SERV. PÚBLICO (77)" dataDxfId="26" dataCellStyle="Millares 2"/>
-    <tableColumn id="48" xr3:uid="{CAA052F7-19D2-4AEE-BCD6-DE612F8BB208}" name="BONO SINDICAL (SI)" dataDxfId="25" dataCellStyle="Normal 3"/>
-    <tableColumn id="49" xr3:uid="{0334EE49-B944-47FD-B938-97331E6AC5D4}" name="PREMIO AL MERITO (ME)" dataDxfId="24" dataCellStyle="Normal 3"/>
-    <tableColumn id="50" xr3:uid="{CF17F482-20E4-4DA9-AB13-BFBCC3DC677E}" name="FESTEJOS DEL SINDICATO (FS)" dataDxfId="23" dataCellStyle="Normal 3"/>
-    <tableColumn id="51" xr3:uid="{346285DA-040D-4693-8859-0CD2C82B2419}" name="PRIMA VACACIONAL (32) ANUAL" dataDxfId="22" dataCellStyle="Millares 2"/>
-    <tableColumn id="52" xr3:uid="{8AE2880D-EB56-49F5-97A8-2C7DC8D037B1}" name=" ISSSTEP % APORTACIÓN" dataDxfId="21" dataCellStyle="Normal 3"/>
-    <tableColumn id="53" xr3:uid="{AE80C1AB-DA6B-4879-85DF-1FFFB17A7A37}" name="ISSSTEP APORTACIÓN QUINCENAL" dataDxfId="20" dataCellStyle="Normal 3"/>
-    <tableColumn id="54" xr3:uid="{C916C3C6-1301-40E2-9136-DEDE4DCC3C14}" name="ISSSTEP APORTACION MENSUAL" dataDxfId="19" dataCellStyle="Normal 3"/>
-    <tableColumn id="55" xr3:uid="{E7475823-B77D-4785-A158-F749FADFAB11}" name="SAR QUINCENAL" dataDxfId="18" dataCellStyle="Normal 3"/>
-    <tableColumn id="56" xr3:uid="{481A43E3-8BB3-4727-A576-BD60927F11F4}" name="SAR MENSUAL" dataDxfId="17" dataCellStyle="Normal 3"/>
-    <tableColumn id="57" xr3:uid="{BE1DB80D-7A3F-465A-A323-1F4C452BAC0A}" name="ISN_PM" dataDxfId="16" dataCellStyle="Normal 3"/>
-    <tableColumn id="58" xr3:uid="{00154650-AEBE-40E7-8CEF-AEDA5955578F}" name="ISN_PA" dataDxfId="15" dataCellStyle="Normal 3"/>
-    <tableColumn id="59" xr3:uid="{80BCCCBD-2960-4365-8E12-EBB1C794751E}" name="CORREO INSTITUCIONAL" dataDxfId="14" dataCellStyle="Normal 3"/>
-    <tableColumn id="60" xr3:uid="{E0141EEA-91F6-4C32-B2C2-8D3E68A09CFE}" name="CORREO PERSONAL" dataDxfId="13" dataCellStyle="Normal 3"/>
-    <tableColumn id="61" xr3:uid="{37760479-9527-432B-9E08-97C155E820ED}" name="TELEFONO" dataDxfId="12" dataCellStyle="Normal 3"/>
-    <tableColumn id="62" xr3:uid="{D5DAFDCE-50B2-4446-8633-B6CD37686D0E}" name="DIRECCION" dataDxfId="11" dataCellStyle="Normal 3"/>
-    <tableColumn id="63" xr3:uid="{0FCD5AE4-9D9A-447D-999D-58684AE34A99}" name="DOMICILIO FISCAL" dataDxfId="10" dataCellStyle="Normal 3"/>
-    <tableColumn id="64" xr3:uid="{CCF53FAE-74BA-4C7D-BD54-C23450A4B379}" name="ESCOLARIDAD" dataDxfId="9" dataCellStyle="Normal 3"/>
-    <tableColumn id="65" xr3:uid="{49046BB9-B6B3-4065-91DD-6C9543EBB6C1}" name="CUENTA BANCARIA" dataDxfId="8" dataCellStyle="Normal 3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60570CBC-63D1-448D-B5B8-8F6C94EC3D5A}" name="Tabla1" displayName="Tabla1" ref="A1:BN326" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+  <autoFilter ref="A1:BN326" xr:uid="{60570CBC-63D1-448D-B5B8-8F6C94EC3D5A}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="ACTIVO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="66">
+    <tableColumn id="1" xr3:uid="{39ADAAFA-48E1-4345-856B-4D3B0E7B0397}" name="EXPEDIENTE" dataDxfId="65" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" xr3:uid="{F1FF441F-0F11-41E2-8DA0-62F9C8A90988}" name="No. PLAZA" dataDxfId="64" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" xr3:uid="{C4EB8793-2B7D-45E3-8F3B-D2F876BE7ED3}" name="NO. DE MOVIMIENO DE PERSONAL " dataDxfId="63" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" xr3:uid="{249FA547-98A2-4BFA-9439-1D2A7750D660}" name="Columna1" dataDxfId="62" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" xr3:uid="{11189D97-218E-4788-AEC8-29F8137E3F92}" name="NOMBRE" dataDxfId="61" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" xr3:uid="{B50DB44A-D70C-4FA1-8308-740D35175DE6}" name="CURP" dataDxfId="60" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" xr3:uid="{55E48833-EF35-4A4D-A864-2E435174F639}" name="RFC" dataDxfId="59" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" xr3:uid="{7263FC09-4CE0-4782-BD05-7FF34FF61BF0}" name="CATEGORIA" dataDxfId="58" dataCellStyle="Normal 3"/>
+    <tableColumn id="9" xr3:uid="{F6E0161C-E250-44F3-A03E-27AEE816686C}" name="DESCRIPCION DEL PUESTO" dataDxfId="57" dataCellStyle="Normal 3"/>
+    <tableColumn id="10" xr3:uid="{66B1B4A9-2FF9-4FC7-8407-0A5BBAD675A6}" name="AREA" dataDxfId="56" dataCellStyle="Normal 3"/>
+    <tableColumn id="11" xr3:uid="{9828C5C7-0D1B-493B-BC27-4A02A1EAAB8E}" name="ADSCRIPCIÓN FÍSICA" dataDxfId="55" dataCellStyle="Normal 3"/>
+    <tableColumn id="12" xr3:uid="{6937F488-249C-4EF6-BA30-40A37F931889}" name="ESTATUS" dataDxfId="54" dataCellStyle="Normal 3"/>
+    <tableColumn id="13" xr3:uid="{8F613E6B-4C39-481F-AEE8-56BE5F319D6A}" name="FECHA DE INGRESO" dataDxfId="53" dataCellStyle="Normal 3"/>
+    <tableColumn id="14" xr3:uid="{1BFF8B17-31EE-410C-A3B2-86FC3B212DEC}" name="CAMBIO DE CATEGORIA" dataDxfId="52" dataCellStyle="Normal 3"/>
+    <tableColumn id="15" xr3:uid="{AC621029-ED30-4D21-A0EF-5D4AFD16CE5F}" name="BAJA" dataDxfId="51" dataCellStyle="Normal 3"/>
+    <tableColumn id="16" xr3:uid="{06D4608B-6F6D-4817-8B26-F8FCD7BCB4CF}" name="FECHA DE REINGRESO" dataDxfId="50" dataCellStyle="Normal 3"/>
+    <tableColumn id="17" xr3:uid="{B630DDA3-AB0C-41B9-B5D3-5B515F942AA8}" name="RÉGIMEN DE CONTRATACIÓN" dataDxfId="49" dataCellStyle="Normal 3"/>
+    <tableColumn id="18" xr3:uid="{FABE71DA-EBE0-498E-8886-3AA2889B64CB}" name="Columna2" dataDxfId="48" dataCellStyle="Normal 3"/>
+    <tableColumn id="19" xr3:uid="{684FCC6E-35ED-4B2B-8BBF-ED11A7E46360}" name="SEXO" dataDxfId="47" dataCellStyle="Normal 3"/>
+    <tableColumn id="20" xr3:uid="{EF57BE10-E370-416E-95D3-425C2B594BA8}" name="CUMPLEAÑOS" dataDxfId="46" dataCellStyle="Normal 3"/>
+    <tableColumn id="21" xr3:uid="{19790762-E7B8-4D88-8CE5-F9E4AC40679C}" name="Columna3" dataDxfId="45" dataCellStyle="Normal 3"/>
+    <tableColumn id="22" xr3:uid="{6FDBC7B6-2802-4C1B-ADDF-B038E72141D8}" name="EDAD" dataDxfId="44"/>
+    <tableColumn id="23" xr3:uid="{DF0EA22F-1312-4F4B-B561-FC6035DD82B9}" name="AFILIACIÓN ISSSTEP" dataDxfId="43" dataCellStyle="Normal 3"/>
+    <tableColumn id="24" xr3:uid="{9E5FCC2D-6504-4D83-BBBB-46C8F2BF17B2}" name="CENTRO DE COSTOS" dataDxfId="42" dataCellStyle="Normal 3"/>
+    <tableColumn id="25" xr3:uid="{32F87FF4-E66D-4724-9801-0D6A30AA78F9}" name="SALARIO DIARIO" dataDxfId="41" dataCellStyle="Normal 3"/>
+    <tableColumn id="26" xr3:uid="{C80547CE-E0F2-4A3A-9053-C9F6425AFF02}" name="SUELDO QUINCENAL" dataDxfId="40" dataCellStyle="Normal 3"/>
+    <tableColumn id="27" xr3:uid="{BF3C9787-0135-4B1D-9F2B-610F35822041}" name="SUELDO p-07 (1132)" dataDxfId="39" dataCellStyle="Normal 3"/>
+    <tableColumn id="28" xr3:uid="{F1BB0BDE-2BE7-4A8E-865D-C43ACE1366CA}" name="DESPENSA (38)" dataDxfId="38" dataCellStyle="Normal 3"/>
+    <tableColumn id="29" xr3:uid="{9BAFB633-B847-4DB1-B38E-9405F53457B7}" name="COMPENSACIÓN ESPECIAL (51)" dataDxfId="37" dataCellStyle="Normal 3"/>
+    <tableColumn id="30" xr3:uid="{1813D8AE-FD8F-4DAA-ADFC-E72F9C4894C3}" name="AYUDA DE VARIOS (56)" dataDxfId="36" dataCellStyle="Normal 3"/>
+    <tableColumn id="31" xr3:uid="{2445D102-B29E-45C5-B971-936AB57F4193}" name="PUNTUALIDAD Y ASISTENCIA (69)" dataDxfId="35" dataCellStyle="Normal 3"/>
+    <tableColumn id="32" xr3:uid="{947387FA-7164-4826-8034-0FF4E80CA5FD}" name="QUINQUENIO (C1/C6)" dataDxfId="34" dataCellStyle="Normal 3"/>
+    <tableColumn id="33" xr3:uid="{090A493F-C0B2-4675-B46B-68A932386D8D}" name="APOYO A LA ECONOMÍA(EM)" dataDxfId="33" dataCellStyle="Normal 3"/>
+    <tableColumn id="34" xr3:uid="{4764767A-32DD-414A-9114-D7A5D278D021}" name="APOYO AL TRANSPORTE(TR)" dataDxfId="32" dataCellStyle="Normal 3"/>
+    <tableColumn id="35" xr3:uid="{C5F16B07-4AED-442C-9BB9-0340F96222A0}" name="COMPENSACIÓN (J5)" dataDxfId="31" dataCellStyle="Normal 3"/>
+    <tableColumn id="36" xr3:uid="{A20FBDA9-1BA3-4170-9984-9DF365D4BE5D}" name="TOTAL PERCEPCIONES MENSUALES" dataDxfId="30" dataCellStyle="Normal 3"/>
+    <tableColumn id="37" xr3:uid="{22EAB820-171C-4246-9564-74D5EF37A4DD}" name="ISR" dataDxfId="29" dataCellStyle="Normal 3"/>
+    <tableColumn id="38" xr3:uid="{4986657C-8166-433C-94BE-43170F9D4E42}" name="ISSSTEP CUOTA QUINCENAL 13%" dataDxfId="28" dataCellStyle="Normal 3"/>
+    <tableColumn id="39" xr3:uid="{F4BEFF1E-896D-4C98-91C9-23007B189B9E}" name="ISSSTEP CUOTA MENSUAL 13%" dataDxfId="27" dataCellStyle="Normal 3"/>
+    <tableColumn id="40" xr3:uid="{9138AB37-8234-4C1F-9EC2-A9920D5E3495}" name="TOTAL DEDUCCCIONES MENSUALES" dataDxfId="26" dataCellStyle="Normal 3"/>
+    <tableColumn id="41" xr3:uid="{C268CE6C-3D36-4480-B305-E3EFA9ABEE6E}" name="NETO MENSUAL" dataDxfId="25" dataCellStyle="Normal 3"/>
+    <tableColumn id="42" xr3:uid="{F78E824B-B31E-4B9C-B482-07CD999A0E99}" name="GRATIFICACIÓN DE FIN DE AÑO (24)" dataDxfId="24" dataCellStyle="Millares 2"/>
+    <tableColumn id="43" xr3:uid="{885828D7-E7E8-43F0-9642-924BEF004E69}" name="AGUINALDO (J5)" dataDxfId="23" dataCellStyle="Normal 3"/>
+    <tableColumn id="44" xr3:uid="{416447DD-F337-4898-AEA1-F7E3BEC0CA9D}" name="PRIMA VACACIONAL PARCIAL(32)" dataDxfId="22" dataCellStyle="Millares 2"/>
+    <tableColumn id="45" xr3:uid="{F01B56AB-4079-4601-AB3F-1FFDB614D4E7}" name="ÚTILES ESCOLARES (55)" dataDxfId="21" dataCellStyle="Millares 2"/>
+    <tableColumn id="46" xr3:uid="{C29DFCFE-C364-4E1B-9269-1672CAAAD497}" name="ESTIMULOS (BE)" dataDxfId="20" dataCellStyle="Millares 2"/>
+    <tableColumn id="47" xr3:uid="{A0EF1BE3-22E3-4E7A-8271-AC1DC3488EBB}" name="ESTIMULO DÍA DEL SERV. PÚBLICO (77)" dataDxfId="19" dataCellStyle="Millares 2"/>
+    <tableColumn id="48" xr3:uid="{CAA052F7-19D2-4AEE-BCD6-DE612F8BB208}" name="BONO SINDICAL (SI)" dataDxfId="18" dataCellStyle="Normal 3"/>
+    <tableColumn id="49" xr3:uid="{0334EE49-B944-47FD-B938-97331E6AC5D4}" name="PREMIO AL MERITO (ME)" dataDxfId="17" dataCellStyle="Normal 3"/>
+    <tableColumn id="50" xr3:uid="{CF17F482-20E4-4DA9-AB13-BFBCC3DC677E}" name="FESTEJOS DEL SINDICATO (FS)" dataDxfId="16" dataCellStyle="Normal 3"/>
+    <tableColumn id="51" xr3:uid="{346285DA-040D-4693-8859-0CD2C82B2419}" name="PRIMA VACACIONAL (32) ANUAL" dataDxfId="15" dataCellStyle="Millares 2"/>
+    <tableColumn id="52" xr3:uid="{8AE2880D-EB56-49F5-97A8-2C7DC8D037B1}" name=" ISSSTEP % APORTACIÓN" dataDxfId="14" dataCellStyle="Normal 3"/>
+    <tableColumn id="53" xr3:uid="{AE80C1AB-DA6B-4879-85DF-1FFFB17A7A37}" name="ISSSTEP APORTACIÓN QUINCENAL" dataDxfId="13" dataCellStyle="Normal 3"/>
+    <tableColumn id="54" xr3:uid="{C916C3C6-1301-40E2-9136-DEDE4DCC3C14}" name="ISSSTEP APORTACION MENSUAL" dataDxfId="12" dataCellStyle="Normal 3"/>
+    <tableColumn id="55" xr3:uid="{E7475823-B77D-4785-A158-F749FADFAB11}" name="SAR QUINCENAL" dataDxfId="11" dataCellStyle="Normal 3"/>
+    <tableColumn id="56" xr3:uid="{481A43E3-8BB3-4727-A576-BD60927F11F4}" name="SAR MENSUAL" dataDxfId="10" dataCellStyle="Normal 3"/>
+    <tableColumn id="57" xr3:uid="{BE1DB80D-7A3F-465A-A323-1F4C452BAC0A}" name="ISN_PM" dataDxfId="9" dataCellStyle="Normal 3"/>
+    <tableColumn id="58" xr3:uid="{00154650-AEBE-40E7-8CEF-AEDA5955578F}" name="ISN_PA" dataDxfId="8" dataCellStyle="Normal 3"/>
+    <tableColumn id="59" xr3:uid="{80BCCCBD-2960-4365-8E12-EBB1C794751E}" name="CORREO INSTITUCIONAL" dataDxfId="7" dataCellStyle="Normal 3"/>
+    <tableColumn id="60" xr3:uid="{E0141EEA-91F6-4C32-B2C2-8D3E68A09CFE}" name="CORREO PERSONAL" dataDxfId="6" dataCellStyle="Normal 3"/>
+    <tableColumn id="61" xr3:uid="{37760479-9527-432B-9E08-97C155E820ED}" name="TELEFONO" dataDxfId="5" dataCellStyle="Normal 3"/>
+    <tableColumn id="62" xr3:uid="{D5DAFDCE-50B2-4446-8633-B6CD37686D0E}" name="DIRECCION" dataDxfId="4" dataCellStyle="Normal 3"/>
+    <tableColumn id="63" xr3:uid="{0FCD5AE4-9D9A-447D-999D-58684AE34A99}" name="DOMICILIO FISCAL" dataDxfId="3" dataCellStyle="Normal 3"/>
+    <tableColumn id="64" xr3:uid="{CCF53FAE-74BA-4C7D-BD54-C23450A4B379}" name="ESCOLARIDAD" dataDxfId="2" dataCellStyle="Normal 3"/>
+    <tableColumn id="65" xr3:uid="{49046BB9-B6B3-4065-91DD-6C9543EBB6C1}" name="CUENTA BANCARIA" dataDxfId="1" dataCellStyle="Normal 3"/>
+    <tableColumn id="66" xr3:uid="{80243867-C56F-4DA7-9F48-72B4706DEC2C}" name="temp" dataDxfId="0" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10506,13 +10565,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:BM326"/>
+  <dimension ref="A1:BN326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10584,7 +10643,7 @@
     <col min="66" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="1" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -10780,8 +10839,11 @@
       <c r="BM1" s="25" t="s">
         <v>59</v>
       </c>
+      <c r="BN1" s="25" t="s">
+        <v>2488</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>20669</v>
       </c>
@@ -10965,8 +11027,9 @@
       <c r="BM2" s="62" t="s">
         <v>78</v>
       </c>
+      <c r="BN2" s="125"/>
     </row>
-    <row r="3" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>48763</v>
       </c>
@@ -11148,8 +11211,9 @@
       <c r="BM3" s="62" t="s">
         <v>94</v>
       </c>
+      <c r="BN3" s="39"/>
     </row>
-    <row r="4" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>58925</v>
       </c>
@@ -11331,8 +11395,9 @@
       <c r="BM4" s="62" t="s">
         <v>109</v>
       </c>
+      <c r="BN4" s="39"/>
     </row>
-    <row r="5" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>63252</v>
       </c>
@@ -11526,8 +11591,9 @@
       <c r="BM5" s="62" t="s">
         <v>122</v>
       </c>
+      <c r="BN5" s="39"/>
     </row>
-    <row r="6" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>67707</v>
       </c>
@@ -11709,8 +11775,9 @@
       <c r="BM6" s="62" t="s">
         <v>137</v>
       </c>
+      <c r="BN6" s="39"/>
     </row>
-    <row r="7" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>67707</v>
       </c>
@@ -11892,8 +11959,9 @@
       <c r="BM7" s="62" t="s">
         <v>137</v>
       </c>
+      <c r="BN7" s="39"/>
     </row>
-    <row r="8" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>76208</v>
       </c>
@@ -12077,8 +12145,9 @@
       <c r="BM8" s="62" t="s">
         <v>155</v>
       </c>
+      <c r="BN8" s="39"/>
     </row>
-    <row r="9" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>85445</v>
       </c>
@@ -12256,8 +12325,9 @@
       <c r="BM9" s="62" t="s">
         <v>167</v>
       </c>
+      <c r="BN9" s="39"/>
     </row>
-    <row r="10" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>86589</v>
       </c>
@@ -12439,8 +12509,9 @@
       <c r="BM10" s="62" t="s">
         <v>181</v>
       </c>
+      <c r="BN10" s="39"/>
     </row>
-    <row r="11" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>86589</v>
       </c>
@@ -12624,8 +12695,9 @@
       <c r="BM11" s="62" t="s">
         <v>181</v>
       </c>
+      <c r="BN11" s="39"/>
     </row>
-    <row r="12" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>87514</v>
       </c>
@@ -12807,8 +12879,9 @@
       <c r="BM12" s="62" t="s">
         <v>195</v>
       </c>
+      <c r="BN12" s="39"/>
     </row>
-    <row r="13" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
         <v>92838</v>
       </c>
@@ -12990,8 +13063,9 @@
       <c r="BM13" s="62">
         <v>1521462404</v>
       </c>
+      <c r="BN13" s="39"/>
     </row>
-    <row r="14" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
         <v>92838</v>
       </c>
@@ -13171,8 +13245,9 @@
       <c r="BM14" s="62">
         <v>1521462404</v>
       </c>
+      <c r="BN14" s="39"/>
     </row>
-    <row r="15" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
         <v>92838</v>
       </c>
@@ -13354,8 +13429,9 @@
       <c r="BM15" s="62">
         <v>1521462404</v>
       </c>
+      <c r="BN15" s="39"/>
     </row>
-    <row r="16" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
         <v>93049</v>
       </c>
@@ -13537,8 +13613,9 @@
       <c r="BM16" s="62">
         <v>6492504364</v>
       </c>
+      <c r="BN16" s="39"/>
     </row>
-    <row r="17" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
         <v>93049</v>
       </c>
@@ -13722,8 +13799,9 @@
       <c r="BM17" s="62" t="s">
         <v>226</v>
       </c>
+      <c r="BN17" s="39"/>
     </row>
-    <row r="18" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
         <v>98996</v>
       </c>
@@ -13905,8 +13983,9 @@
       <c r="BM18" s="62">
         <v>1533621339</v>
       </c>
+      <c r="BN18" s="39"/>
     </row>
-    <row r="19" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>101426</v>
       </c>
@@ -14086,8 +14165,9 @@
       <c r="BM19" s="62">
         <v>1520690577</v>
       </c>
+      <c r="BN19" s="39"/>
     </row>
-    <row r="20" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>101426</v>
       </c>
@@ -14247,8 +14327,9 @@
       <c r="BM20" s="62">
         <v>1520690577</v>
       </c>
+      <c r="BN20" s="39"/>
     </row>
-    <row r="21" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>102549</v>
       </c>
@@ -14430,8 +14511,9 @@
       <c r="BM21" s="62" t="s">
         <v>261</v>
       </c>
+      <c r="BN21" s="39"/>
     </row>
-    <row r="22" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41">
         <v>104194</v>
       </c>
@@ -14613,8 +14695,9 @@
       <c r="BM22" s="62" t="s">
         <v>274</v>
       </c>
+      <c r="BN22" s="39"/>
     </row>
-    <row r="23" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41">
         <v>104559</v>
       </c>
@@ -14798,8 +14881,9 @@
       <c r="BM23" s="62" t="s">
         <v>286</v>
       </c>
+      <c r="BN23" s="39"/>
     </row>
-    <row r="24" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>104559</v>
       </c>
@@ -14981,8 +15065,9 @@
       <c r="BM24" s="62" t="s">
         <v>286</v>
       </c>
+      <c r="BN24" s="39"/>
     </row>
-    <row r="25" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="67">
         <v>104854</v>
       </c>
@@ -15164,8 +15249,9 @@
       <c r="BM25" s="62">
         <v>1565866904</v>
       </c>
+      <c r="BN25" s="39"/>
     </row>
-    <row r="26" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="67">
         <v>104854</v>
       </c>
@@ -15347,8 +15433,9 @@
       <c r="BM26" s="62">
         <v>1565866904</v>
       </c>
+      <c r="BN26" s="39"/>
     </row>
-    <row r="27" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41">
         <v>105110</v>
       </c>
@@ -15530,8 +15617,9 @@
       <c r="BM27" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN27" s="39"/>
     </row>
-    <row r="28" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41">
         <v>105110</v>
       </c>
@@ -15711,8 +15799,9 @@
       <c r="BM28" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN28" s="39"/>
     </row>
-    <row r="29" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41">
         <v>105110</v>
       </c>
@@ -15892,8 +15981,9 @@
       <c r="BM29" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN29" s="39"/>
     </row>
-    <row r="30" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41">
         <v>105110</v>
       </c>
@@ -16077,8 +16167,9 @@
       <c r="BM30" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN30" s="39"/>
     </row>
-    <row r="31" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41">
         <v>105110</v>
       </c>
@@ -16260,8 +16351,9 @@
       <c r="BM31" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN31" s="39"/>
     </row>
-    <row r="32" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>105110</v>
       </c>
@@ -16443,8 +16535,9 @@
       <c r="BM32" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN32" s="39"/>
     </row>
-    <row r="33" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41">
         <v>105110</v>
       </c>
@@ -16626,8 +16719,9 @@
       <c r="BM33" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN33" s="39"/>
     </row>
-    <row r="34" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
         <v>105110</v>
       </c>
@@ -16807,8 +16901,11 @@
       <c r="BM34" s="62" t="s">
         <v>309</v>
       </c>
+      <c r="BN34" s="39">
+        <v>12</v>
+      </c>
     </row>
-    <row r="35" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>105199</v>
       </c>
@@ -16990,8 +17087,9 @@
       <c r="BM35" s="62" t="s">
         <v>343</v>
       </c>
+      <c r="BN35" s="39"/>
     </row>
-    <row r="36" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
         <v>105933</v>
       </c>
@@ -17173,8 +17271,9 @@
       <c r="BM36" s="62" t="s">
         <v>355</v>
       </c>
+      <c r="BN36" s="39"/>
     </row>
-    <row r="37" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <v>106016</v>
       </c>
@@ -17356,8 +17455,9 @@
       <c r="BM37" s="62" t="s">
         <v>367</v>
       </c>
+      <c r="BN37" s="39"/>
     </row>
-    <row r="38" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
         <v>107526</v>
       </c>
@@ -17539,8 +17639,9 @@
       <c r="BM38" s="62" t="s">
         <v>379</v>
       </c>
+      <c r="BN38" s="39"/>
     </row>
-    <row r="39" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>107527</v>
       </c>
@@ -17722,8 +17823,9 @@
       <c r="BM39" s="62" t="s">
         <v>390</v>
       </c>
+      <c r="BN39" s="39"/>
     </row>
-    <row r="40" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>107527</v>
       </c>
@@ -17903,8 +18005,9 @@
       <c r="BM40" s="62" t="s">
         <v>390</v>
       </c>
+      <c r="BN40" s="39"/>
     </row>
-    <row r="41" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>107527</v>
       </c>
@@ -18086,8 +18189,9 @@
       <c r="BM41" s="62" t="s">
         <v>390</v>
       </c>
+      <c r="BN41" s="39"/>
     </row>
-    <row r="42" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>107528</v>
       </c>
@@ -18271,8 +18375,9 @@
       <c r="BM42" s="62" t="s">
         <v>407</v>
       </c>
+      <c r="BN42" s="39"/>
     </row>
-    <row r="43" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="67">
         <v>107529</v>
       </c>
@@ -18454,8 +18559,9 @@
       <c r="BM43" s="62" t="s">
         <v>417</v>
       </c>
+      <c r="BN43" s="39"/>
     </row>
-    <row r="44" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>107530</v>
       </c>
@@ -18511,7 +18617,7 @@
       </c>
       <c r="V44" s="47">
         <f t="shared" ca="1" si="30"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W44" s="53">
         <v>10781800</v>
@@ -18635,8 +18741,11 @@
       <c r="BM44" s="62" t="s">
         <v>431</v>
       </c>
+      <c r="BN44" s="39">
+        <v>17</v>
+      </c>
     </row>
-    <row r="45" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41">
         <v>107544</v>
       </c>
@@ -18818,8 +18927,9 @@
       <c r="BM45" s="62" t="s">
         <v>442</v>
       </c>
+      <c r="BN45" s="39"/>
     </row>
-    <row r="46" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="67">
         <v>107673</v>
       </c>
@@ -19001,8 +19111,9 @@
       <c r="BM46" s="62" t="s">
         <v>456</v>
       </c>
+      <c r="BN46" s="39"/>
     </row>
-    <row r="47" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="67">
         <v>107674</v>
       </c>
@@ -19186,8 +19297,9 @@
       <c r="BM47" s="62" t="s">
         <v>468</v>
       </c>
+      <c r="BN47" s="39"/>
     </row>
-    <row r="48" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="67">
         <v>107674</v>
       </c>
@@ -19369,8 +19481,9 @@
       <c r="BM48" s="62" t="s">
         <v>468</v>
       </c>
+      <c r="BN48" s="39"/>
     </row>
-    <row r="49" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>107675</v>
       </c>
@@ -19554,8 +19667,9 @@
       <c r="BM49" s="62" t="s">
         <v>485</v>
       </c>
+      <c r="BN49" s="39"/>
     </row>
-    <row r="50" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>92700100</v>
       </c>
@@ -19737,8 +19851,9 @@
       <c r="BM50" s="62" t="s">
         <v>498</v>
       </c>
+      <c r="BN50" s="39"/>
     </row>
-    <row r="51" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>92700100</v>
       </c>
@@ -19938,8 +20053,9 @@
       <c r="BM51" s="62" t="s">
         <v>498</v>
       </c>
+      <c r="BN51" s="39"/>
     </row>
-    <row r="52" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
         <v>502</v>
       </c>
@@ -20119,8 +20235,9 @@
       <c r="BM52" s="62" t="s">
         <v>512</v>
       </c>
+      <c r="BN52" s="39"/>
     </row>
-    <row r="53" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>513</v>
       </c>
@@ -20300,8 +20417,9 @@
       <c r="BM53" s="62" t="s">
         <v>525</v>
       </c>
+      <c r="BN53" s="39"/>
     </row>
-    <row r="54" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>526</v>
       </c>
@@ -20481,8 +20599,9 @@
       <c r="BM54" s="62" t="s">
         <v>537</v>
       </c>
+      <c r="BN54" s="39"/>
     </row>
-    <row r="55" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>538</v>
       </c>
@@ -20664,8 +20783,9 @@
       <c r="BM55" s="62" t="s">
         <v>551</v>
       </c>
+      <c r="BN55" s="39"/>
     </row>
-    <row r="56" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>552</v>
       </c>
@@ -20849,8 +20969,9 @@
       <c r="BM56" s="62" t="s">
         <v>564</v>
       </c>
+      <c r="BN56" s="39"/>
     </row>
-    <row r="57" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>552</v>
       </c>
@@ -21030,8 +21151,9 @@
       <c r="BM57" s="62" t="s">
         <v>564</v>
       </c>
+      <c r="BN57" s="39"/>
     </row>
-    <row r="58" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>552</v>
       </c>
@@ -21213,8 +21335,9 @@
       <c r="BM58" s="62" t="s">
         <v>564</v>
       </c>
+      <c r="BN58" s="39"/>
     </row>
-    <row r="59" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>569</v>
       </c>
@@ -21398,8 +21521,9 @@
       <c r="BM59" s="62" t="s">
         <v>581</v>
       </c>
+      <c r="BN59" s="39"/>
     </row>
-    <row r="60" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>569</v>
       </c>
@@ -21583,8 +21707,9 @@
       <c r="BM60" s="62" t="s">
         <v>581</v>
       </c>
+      <c r="BN60" s="39"/>
     </row>
-    <row r="61" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>569</v>
       </c>
@@ -21768,8 +21893,9 @@
       <c r="BM61" s="62" t="s">
         <v>581</v>
       </c>
+      <c r="BN61" s="39"/>
     </row>
-    <row r="62" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>587</v>
       </c>
@@ -21949,8 +22075,9 @@
       <c r="BM62" s="62" t="s">
         <v>598</v>
       </c>
+      <c r="BN62" s="39"/>
     </row>
-    <row r="63" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>587</v>
       </c>
@@ -22132,8 +22259,9 @@
       <c r="BM63" s="62" t="s">
         <v>598</v>
       </c>
+      <c r="BN63" s="39"/>
     </row>
-    <row r="64" spans="1:65" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="5" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>600</v>
       </c>
@@ -22313,8 +22441,9 @@
       <c r="BM64" s="62" t="s">
         <v>612</v>
       </c>
+      <c r="BN64" s="39"/>
     </row>
-    <row r="65" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>613</v>
       </c>
@@ -22496,8 +22625,9 @@
       <c r="BM65" s="62" t="s">
         <v>624</v>
       </c>
+      <c r="BN65" s="39"/>
     </row>
-    <row r="66" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>625</v>
       </c>
@@ -22677,8 +22807,9 @@
       <c r="BM66" s="62" t="s">
         <v>635</v>
       </c>
+      <c r="BN66" s="39"/>
     </row>
-    <row r="67" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>636</v>
       </c>
@@ -22858,8 +22989,9 @@
       <c r="BM67" s="62" t="s">
         <v>645</v>
       </c>
+      <c r="BN67" s="39"/>
     </row>
-    <row r="68" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
         <v>646</v>
       </c>
@@ -23043,8 +23175,9 @@
       <c r="BM68" s="62" t="s">
         <v>659</v>
       </c>
+      <c r="BN68" s="39"/>
     </row>
-    <row r="69" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
         <v>660</v>
       </c>
@@ -23224,8 +23357,9 @@
       <c r="BM69" s="62" t="s">
         <v>672</v>
       </c>
+      <c r="BN69" s="39"/>
     </row>
-    <row r="70" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
         <v>673</v>
       </c>
@@ -23407,8 +23541,9 @@
       <c r="BM70" s="62" t="s">
         <v>685</v>
       </c>
+      <c r="BN70" s="39"/>
     </row>
-    <row r="71" spans="1:65" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" s="2" customFormat="1" ht="39.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>673</v>
       </c>
@@ -23584,8 +23719,9 @@
       <c r="BM71" s="62" t="s">
         <v>685</v>
       </c>
+      <c r="BN71" s="39"/>
     </row>
-    <row r="72" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>673</v>
       </c>
@@ -23759,8 +23895,9 @@
       <c r="BM72" s="62" t="s">
         <v>685</v>
       </c>
+      <c r="BN72" s="39"/>
     </row>
-    <row r="73" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
         <v>673</v>
       </c>
@@ -23934,8 +24071,9 @@
       <c r="BM73" s="62" t="s">
         <v>685</v>
       </c>
+      <c r="BN73" s="39"/>
     </row>
-    <row r="74" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>673</v>
       </c>
@@ -24111,8 +24249,9 @@
       <c r="BM74" s="62" t="s">
         <v>685</v>
       </c>
+      <c r="BN74" s="39"/>
     </row>
-    <row r="75" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
         <v>697</v>
       </c>
@@ -24292,8 +24431,9 @@
       <c r="BM75" s="62" t="s">
         <v>708</v>
       </c>
+      <c r="BN75" s="39"/>
     </row>
-    <row r="76" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="s">
         <v>697</v>
       </c>
@@ -24475,8 +24615,9 @@
       <c r="BM76" s="62" t="s">
         <v>708</v>
       </c>
+      <c r="BN76" s="39"/>
     </row>
-    <row r="77" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="41" t="s">
         <v>710</v>
       </c>
@@ -24654,8 +24795,9 @@
       <c r="BM77" s="62" t="s">
         <v>720</v>
       </c>
+      <c r="BN77" s="39"/>
     </row>
-    <row r="78" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="41" t="s">
         <v>710</v>
       </c>
@@ -24835,8 +24977,9 @@
       <c r="BM78" s="62" t="s">
         <v>720</v>
       </c>
+      <c r="BN78" s="39"/>
     </row>
-    <row r="79" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="41" t="s">
         <v>723</v>
       </c>
@@ -25014,8 +25157,9 @@
       <c r="BM79" s="62" t="s">
         <v>734</v>
       </c>
+      <c r="BN79" s="39"/>
     </row>
-    <row r="80" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="41" t="s">
         <v>735</v>
       </c>
@@ -25199,8 +25343,9 @@
       <c r="BM80" s="62" t="s">
         <v>745</v>
       </c>
+      <c r="BN80" s="39"/>
     </row>
-    <row r="81" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>735</v>
       </c>
@@ -25380,8 +25525,9 @@
       <c r="BM81" s="62" t="s">
         <v>745</v>
       </c>
+      <c r="BN81" s="39"/>
     </row>
-    <row r="82" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
         <v>735</v>
       </c>
@@ -25565,8 +25711,9 @@
       <c r="BM82" s="62" t="s">
         <v>745</v>
       </c>
+      <c r="BN82" s="39"/>
     </row>
-    <row r="83" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="41" t="s">
         <v>752</v>
       </c>
@@ -25748,8 +25895,9 @@
       <c r="BM83" s="62" t="s">
         <v>761</v>
       </c>
+      <c r="BN83" s="39"/>
     </row>
-    <row r="84" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="41" t="s">
         <v>752</v>
       </c>
@@ -25909,8 +26057,9 @@
       <c r="BM84" s="62" t="s">
         <v>761</v>
       </c>
+      <c r="BN84" s="39"/>
     </row>
-    <row r="85" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="41" t="s">
         <v>763</v>
       </c>
@@ -26092,8 +26241,9 @@
       <c r="BM85" s="62" t="s">
         <v>776</v>
       </c>
+      <c r="BN85" s="39"/>
     </row>
-    <row r="86" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="s">
         <v>777</v>
       </c>
@@ -26273,8 +26423,9 @@
       <c r="BM86" s="62" t="s">
         <v>787</v>
       </c>
+      <c r="BN86" s="39"/>
     </row>
-    <row r="87" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="41" t="s">
         <v>788</v>
       </c>
@@ -26454,8 +26605,9 @@
       <c r="BM87" s="62" t="s">
         <v>800</v>
       </c>
+      <c r="BN87" s="39"/>
     </row>
-    <row r="88" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="41" t="s">
         <v>801</v>
       </c>
@@ -26635,8 +26787,9 @@
       <c r="BM88" s="62" t="s">
         <v>811</v>
       </c>
+      <c r="BN88" s="39"/>
     </row>
-    <row r="89" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="41" t="s">
         <v>812</v>
       </c>
@@ -26816,8 +26969,9 @@
       <c r="BM89" s="62" t="s">
         <v>820</v>
       </c>
+      <c r="BN89" s="39"/>
     </row>
-    <row r="90" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="41" t="s">
         <v>821</v>
       </c>
@@ -26997,8 +27151,9 @@
       <c r="BM90" s="62" t="s">
         <v>831</v>
       </c>
+      <c r="BN90" s="39"/>
     </row>
-    <row r="91" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="s">
         <v>832</v>
       </c>
@@ -27178,8 +27333,9 @@
       <c r="BM91" s="62" t="s">
         <v>841</v>
       </c>
+      <c r="BN91" s="39"/>
     </row>
-    <row r="92" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>842</v>
       </c>
@@ -27361,8 +27517,9 @@
       <c r="BM92" s="62" t="s">
         <v>854</v>
       </c>
+      <c r="BN92" s="39"/>
     </row>
-    <row r="93" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
         <v>842</v>
       </c>
@@ -27542,8 +27699,9 @@
       <c r="BM93" s="62" t="s">
         <v>854</v>
       </c>
+      <c r="BN93" s="39"/>
     </row>
-    <row r="94" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>842</v>
       </c>
@@ -27727,8 +27885,9 @@
       <c r="BM94" s="62" t="s">
         <v>854</v>
       </c>
+      <c r="BN94" s="39"/>
     </row>
-    <row r="95" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>861</v>
       </c>
@@ -27908,8 +28067,9 @@
       <c r="BM95" s="62" t="s">
         <v>870</v>
       </c>
+      <c r="BN95" s="39"/>
     </row>
-    <row r="96" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="s">
         <v>871</v>
       </c>
@@ -28089,8 +28249,9 @@
       <c r="BM96" s="62" t="s">
         <v>882</v>
       </c>
+      <c r="BN96" s="39"/>
     </row>
-    <row r="97" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="41" t="s">
         <v>871</v>
       </c>
@@ -28270,8 +28431,9 @@
       <c r="BM97" s="62" t="s">
         <v>882</v>
       </c>
+      <c r="BN97" s="39"/>
     </row>
-    <row r="98" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="41" t="s">
         <v>871</v>
       </c>
@@ -28451,8 +28613,9 @@
       <c r="BM98" s="62" t="s">
         <v>882</v>
       </c>
+      <c r="BN98" s="39"/>
     </row>
-    <row r="99" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="41" t="s">
         <v>871</v>
       </c>
@@ -28636,8 +28799,9 @@
       <c r="BM99" s="62" t="s">
         <v>882</v>
       </c>
+      <c r="BN99" s="39"/>
     </row>
-    <row r="100" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="41" t="s">
         <v>890</v>
       </c>
@@ -28817,8 +28981,9 @@
       <c r="BM100" s="62" t="s">
         <v>899</v>
       </c>
+      <c r="BN100" s="39"/>
     </row>
-    <row r="101" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="s">
         <v>900</v>
       </c>
@@ -28996,8 +29161,9 @@
       <c r="BM101" s="62" t="s">
         <v>911</v>
       </c>
+      <c r="BN101" s="39"/>
     </row>
-    <row r="102" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="41" t="s">
         <v>912</v>
       </c>
@@ -29177,8 +29343,9 @@
       <c r="BM102" s="62" t="s">
         <v>923</v>
       </c>
+      <c r="BN102" s="39"/>
     </row>
-    <row r="103" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41" t="s">
         <v>912</v>
       </c>
@@ -29360,8 +29527,9 @@
       <c r="BM103" s="62" t="s">
         <v>923</v>
       </c>
+      <c r="BN103" s="39"/>
     </row>
-    <row r="104" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="41" t="s">
         <v>912</v>
       </c>
@@ -29543,8 +29711,9 @@
       <c r="BM104" s="62" t="s">
         <v>923</v>
       </c>
+      <c r="BN104" s="39"/>
     </row>
-    <row r="105" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="41" t="s">
         <v>912</v>
       </c>
@@ -29726,8 +29895,9 @@
       <c r="BM105" s="62" t="s">
         <v>923</v>
       </c>
+      <c r="BN105" s="39"/>
     </row>
-    <row r="106" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="s">
         <v>912</v>
       </c>
@@ -29909,8 +30079,9 @@
       <c r="BM106" s="62" t="s">
         <v>923</v>
       </c>
+      <c r="BN106" s="39"/>
     </row>
-    <row r="107" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>92700132</v>
       </c>
@@ -30090,8 +30261,11 @@
       <c r="BM107" s="62" t="s">
         <v>923</v>
       </c>
+      <c r="BN107" s="39">
+        <v>49</v>
+      </c>
     </row>
-    <row r="108" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="41" t="s">
         <v>932</v>
       </c>
@@ -30273,8 +30447,9 @@
       <c r="BM108" s="62" t="s">
         <v>943</v>
       </c>
+      <c r="BN108" s="39"/>
     </row>
-    <row r="109" spans="1:65" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:66" s="2" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="41" t="s">
         <v>932</v>
       </c>
@@ -30454,8 +30629,9 @@
       <c r="BM109" s="62" t="s">
         <v>943</v>
       </c>
+      <c r="BN109" s="39"/>
     </row>
-    <row r="110" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="91" t="s">
         <v>932</v>
       </c>
@@ -30637,8 +30813,9 @@
       <c r="BM110" s="102" t="s">
         <v>943</v>
       </c>
+      <c r="BN110" s="39"/>
     </row>
-    <row r="111" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="91" t="s">
         <v>946</v>
       </c>
@@ -30818,8 +30995,9 @@
       <c r="BM111" s="102" t="s">
         <v>958</v>
       </c>
+      <c r="BN111" s="39"/>
     </row>
-    <row r="112" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="91" t="s">
         <v>946</v>
       </c>
@@ -30997,8 +31175,9 @@
       <c r="BM112" s="102" t="s">
         <v>958</v>
       </c>
+      <c r="BN112" s="39"/>
     </row>
-    <row r="113" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="91" t="s">
         <v>946</v>
       </c>
@@ -31180,8 +31359,9 @@
       <c r="BM113" s="102" t="s">
         <v>958</v>
       </c>
+      <c r="BN113" s="39"/>
     </row>
-    <row r="114" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="91" t="s">
         <v>962</v>
       </c>
@@ -31361,8 +31541,9 @@
       <c r="BM114" s="102" t="s">
         <v>972</v>
       </c>
+      <c r="BN114" s="39"/>
     </row>
-    <row r="115" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="91" t="s">
         <v>962</v>
       </c>
@@ -31540,8 +31721,9 @@
       <c r="BM115" s="102" t="s">
         <v>972</v>
       </c>
+      <c r="BN115" s="39"/>
     </row>
-    <row r="116" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="91" t="s">
         <v>962</v>
       </c>
@@ -31721,8 +31903,9 @@
       <c r="BM116" s="102" t="s">
         <v>972</v>
       </c>
+      <c r="BN116" s="39"/>
     </row>
-    <row r="117" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="91" t="s">
         <v>975</v>
       </c>
@@ -31902,8 +32085,9 @@
       <c r="BM117" s="102" t="s">
         <v>986</v>
       </c>
+      <c r="BN117" s="39"/>
     </row>
-    <row r="118" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="91" t="s">
         <v>975</v>
       </c>
@@ -32085,8 +32269,9 @@
       <c r="BM118" s="102" t="s">
         <v>986</v>
       </c>
+      <c r="BN118" s="39"/>
     </row>
-    <row r="119" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="91" t="s">
         <v>990</v>
       </c>
@@ -32266,8 +32451,9 @@
       <c r="BM119" s="102" t="s">
         <v>1001</v>
       </c>
+      <c r="BN119" s="39"/>
     </row>
-    <row r="120" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="91" t="s">
         <v>1002</v>
       </c>
@@ -32449,8 +32635,9 @@
       <c r="BM120" s="102" t="s">
         <v>1013</v>
       </c>
+      <c r="BN120" s="39"/>
     </row>
-    <row r="121" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="91" t="s">
         <v>1014</v>
       </c>
@@ -32628,8 +32815,9 @@
       <c r="BM121" s="102" t="s">
         <v>1023</v>
       </c>
+      <c r="BN121" s="39"/>
     </row>
-    <row r="122" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="91" t="s">
         <v>1024</v>
       </c>
@@ -32809,8 +32997,9 @@
       <c r="BM122" s="102" t="s">
         <v>1034</v>
       </c>
+      <c r="BN122" s="39"/>
     </row>
-    <row r="123" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="91" t="s">
         <v>1035</v>
       </c>
@@ -32994,8 +33183,9 @@
       <c r="BM123" s="102" t="s">
         <v>1046</v>
       </c>
+      <c r="BN123" s="39"/>
     </row>
-    <row r="124" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="91" t="s">
         <v>1035</v>
       </c>
@@ -33177,8 +33367,9 @@
       <c r="BM124" s="102" t="s">
         <v>1046</v>
       </c>
+      <c r="BN124" s="39"/>
     </row>
-    <row r="125" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="91" t="s">
         <v>1050</v>
       </c>
@@ -33238,7 +33429,7 @@
       </c>
       <c r="V125" s="47">
         <f t="shared" ca="1" si="46"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W125" s="98" t="e">
         <v>#N/A</v>
@@ -33358,8 +33549,9 @@
       <c r="BM125" s="102" t="s">
         <v>1060</v>
       </c>
+      <c r="BN125" s="39"/>
     </row>
-    <row r="126" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="91" t="s">
         <v>1061</v>
       </c>
@@ -33539,8 +33731,9 @@
       <c r="BM126" s="102" t="s">
         <v>1070</v>
       </c>
+      <c r="BN126" s="39"/>
     </row>
-    <row r="127" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="91" t="s">
         <v>1071</v>
       </c>
@@ -33720,8 +33913,9 @@
       <c r="BM127" s="102" t="s">
         <v>1079</v>
       </c>
+      <c r="BN127" s="39"/>
     </row>
-    <row r="128" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="91" t="s">
         <v>1080</v>
       </c>
@@ -33901,8 +34095,9 @@
       <c r="BM128" s="102" t="s">
         <v>1090</v>
       </c>
+      <c r="BN128" s="39"/>
     </row>
-    <row r="129" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="91" t="s">
         <v>1080</v>
       </c>
@@ -34086,8 +34281,9 @@
       <c r="BM129" s="102" t="s">
         <v>1090</v>
       </c>
+      <c r="BN129" s="39"/>
     </row>
-    <row r="130" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="91" t="s">
         <v>1093</v>
       </c>
@@ -34267,8 +34463,9 @@
       <c r="BM130" s="102" t="s">
         <v>1102</v>
       </c>
+      <c r="BN130" s="39"/>
     </row>
-    <row r="131" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="91" t="s">
         <v>1103</v>
       </c>
@@ -34448,8 +34645,9 @@
       <c r="BM131" s="102" t="s">
         <v>1114</v>
       </c>
+      <c r="BN131" s="39"/>
     </row>
-    <row r="132" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="91" t="s">
         <v>1115</v>
       </c>
@@ -34631,8 +34829,9 @@
       <c r="BM132" s="102" t="s">
         <v>1124</v>
       </c>
+      <c r="BN132" s="39"/>
     </row>
-    <row r="133" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="91" t="s">
         <v>1115</v>
       </c>
@@ -34812,8 +35011,9 @@
       <c r="BM133" s="102" t="s">
         <v>1124</v>
       </c>
+      <c r="BN133" s="39"/>
     </row>
-    <row r="134" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="91" t="s">
         <v>1115</v>
       </c>
@@ -34997,8 +35197,9 @@
       <c r="BM134" s="102" t="s">
         <v>1124</v>
       </c>
+      <c r="BN134" s="39"/>
     </row>
-    <row r="135" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="91" t="s">
         <v>1132</v>
       </c>
@@ -35176,8 +35377,9 @@
         <v>1142</v>
       </c>
       <c r="BM135" s="102"/>
+      <c r="BN135" s="39"/>
     </row>
-    <row r="136" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="91" t="s">
         <v>1143</v>
       </c>
@@ -35359,8 +35561,9 @@
       <c r="BM136" s="102" t="s">
         <v>1154</v>
       </c>
+      <c r="BN136" s="39"/>
     </row>
-    <row r="137" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="91" t="s">
         <v>1155</v>
       </c>
@@ -35540,8 +35743,9 @@
       <c r="BM137" s="102" t="s">
         <v>1165</v>
       </c>
+      <c r="BN137" s="39"/>
     </row>
-    <row r="138" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="91" t="s">
         <v>1166</v>
       </c>
@@ -35721,8 +35925,9 @@
       <c r="BM138" s="102" t="s">
         <v>1176</v>
       </c>
+      <c r="BN138" s="39"/>
     </row>
-    <row r="139" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="91" t="s">
         <v>1177</v>
       </c>
@@ -35902,8 +36107,9 @@
       <c r="BM139" s="102" t="s">
         <v>1188</v>
       </c>
+      <c r="BN139" s="39"/>
     </row>
-    <row r="140" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="91" t="s">
         <v>1189</v>
       </c>
@@ -36081,8 +36287,9 @@
       <c r="BM140" s="102">
         <v>1163826007</v>
       </c>
+      <c r="BN140" s="39"/>
     </row>
-    <row r="141" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="91" t="s">
         <v>1198</v>
       </c>
@@ -36266,8 +36473,9 @@
       <c r="BM141" s="102" t="s">
         <v>1210</v>
       </c>
+      <c r="BN141" s="39"/>
     </row>
-    <row r="142" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="91" t="s">
         <v>1211</v>
       </c>
@@ -36447,8 +36655,9 @@
       <c r="BM142" s="102">
         <v>1523680078</v>
       </c>
+      <c r="BN142" s="39"/>
     </row>
-    <row r="143" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="91" t="s">
         <v>1221</v>
       </c>
@@ -36580,8 +36789,9 @@
       <c r="BK143" s="39"/>
       <c r="BL143" s="39"/>
       <c r="BM143" s="102"/>
+      <c r="BN143" s="39"/>
     </row>
-    <row r="144" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="91" t="s">
         <v>1223</v>
       </c>
@@ -36747,8 +36957,9 @@
       <c r="BK144" s="39"/>
       <c r="BL144" s="39"/>
       <c r="BM144" s="102"/>
+      <c r="BN144" s="39"/>
     </row>
-    <row r="145" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="91" t="s">
         <v>1228</v>
       </c>
@@ -36928,8 +37139,9 @@
       <c r="BM145" s="102">
         <v>1545348338</v>
       </c>
+      <c r="BN145" s="39"/>
     </row>
-    <row r="146" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="91" t="s">
         <v>1228</v>
       </c>
@@ -37115,8 +37327,9 @@
       <c r="BM146" s="102" t="s">
         <v>1243</v>
       </c>
+      <c r="BN146" s="39"/>
     </row>
-    <row r="147" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="91" t="s">
         <v>1244</v>
       </c>
@@ -37294,8 +37507,9 @@
       <c r="BM147" s="102">
         <v>1548113587</v>
       </c>
+      <c r="BN147" s="39"/>
     </row>
-    <row r="148" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="91" t="s">
         <v>1254</v>
       </c>
@@ -37477,8 +37691,9 @@
       <c r="BM148" s="102">
         <v>2668459916</v>
       </c>
+      <c r="BN148" s="39"/>
     </row>
-    <row r="149" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="91" t="s">
         <v>1254</v>
       </c>
@@ -37658,8 +37873,9 @@
       <c r="BM149" s="102" t="s">
         <v>1269</v>
       </c>
+      <c r="BN149" s="39"/>
     </row>
-    <row r="150" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="91" t="s">
         <v>1254</v>
       </c>
@@ -37841,8 +38057,9 @@
       <c r="BM150" s="102">
         <v>2668459916</v>
       </c>
+      <c r="BN150" s="39"/>
     </row>
-    <row r="151" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="91" t="s">
         <v>1271</v>
       </c>
@@ -38026,8 +38243,9 @@
       <c r="BM151" s="102" t="s">
         <v>1283</v>
       </c>
+      <c r="BN151" s="39"/>
     </row>
-    <row r="152" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="91" t="s">
         <v>1284</v>
       </c>
@@ -38207,8 +38425,9 @@
       <c r="BM152" s="102">
         <v>1536257666</v>
       </c>
+      <c r="BN152" s="39"/>
     </row>
-    <row r="153" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="91" t="s">
         <v>1284</v>
       </c>
@@ -38390,8 +38609,9 @@
       <c r="BM153" s="102" t="s">
         <v>1295</v>
       </c>
+      <c r="BN153" s="39"/>
     </row>
-    <row r="154" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="91" t="s">
         <v>1296</v>
       </c>
@@ -38517,8 +38737,9 @@
       <c r="BK154" s="39"/>
       <c r="BL154" s="39"/>
       <c r="BM154" s="102"/>
+      <c r="BN154" s="39"/>
     </row>
-    <row r="155" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="91" t="s">
         <v>1297</v>
       </c>
@@ -38700,8 +38921,9 @@
       <c r="BM155" s="102">
         <v>1522337522</v>
       </c>
+      <c r="BN155" s="39"/>
     </row>
-    <row r="156" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="91" t="s">
         <v>1309</v>
       </c>
@@ -38881,8 +39103,9 @@
       <c r="BM156" s="102">
         <v>1571931811</v>
       </c>
+      <c r="BN156" s="39"/>
     </row>
-    <row r="157" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="91" t="s">
         <v>1309</v>
       </c>
@@ -39062,8 +39285,9 @@
       <c r="BM157" s="102" t="s">
         <v>1322</v>
       </c>
+      <c r="BN157" s="39"/>
     </row>
-    <row r="158" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="91" t="s">
         <v>1323</v>
       </c>
@@ -39243,8 +39467,9 @@
       <c r="BM158" s="102">
         <v>1543625187</v>
       </c>
+      <c r="BN158" s="39"/>
     </row>
-    <row r="159" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="91" t="s">
         <v>1323</v>
       </c>
@@ -39422,8 +39647,9 @@
       <c r="BM159" s="102">
         <v>1543625187</v>
       </c>
+      <c r="BN159" s="39"/>
     </row>
-    <row r="160" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="91" t="s">
         <v>1333</v>
       </c>
@@ -39603,8 +39829,9 @@
       <c r="BM160" s="102">
         <v>1574807011</v>
       </c>
+      <c r="BN160" s="39"/>
     </row>
-    <row r="161" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="91" t="s">
         <v>1333</v>
       </c>
@@ -39784,8 +40011,9 @@
       <c r="BM161" s="102" t="s">
         <v>1345</v>
       </c>
+      <c r="BN161" s="39"/>
     </row>
-    <row r="162" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="91" t="s">
         <v>1333</v>
       </c>
@@ -39965,8 +40193,9 @@
       <c r="BM162" s="102" t="s">
         <v>1345</v>
       </c>
+      <c r="BN162" s="39"/>
     </row>
-    <row r="163" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="91" t="s">
         <v>1333</v>
       </c>
@@ -40148,8 +40377,9 @@
       <c r="BM163" s="102" t="s">
         <v>1345</v>
       </c>
+      <c r="BN163" s="39"/>
     </row>
-    <row r="164" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="91" t="s">
         <v>1349</v>
       </c>
@@ -40333,8 +40563,9 @@
       <c r="BM164" s="102" t="s">
         <v>1362</v>
       </c>
+      <c r="BN164" s="39"/>
     </row>
-    <row r="165" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="91" t="s">
         <v>1363</v>
       </c>
@@ -40514,8 +40745,9 @@
       <c r="BM165" s="102">
         <v>1546010695</v>
       </c>
+      <c r="BN165" s="39"/>
     </row>
-    <row r="166" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="91" t="s">
         <v>1363</v>
       </c>
@@ -40699,8 +40931,9 @@
       <c r="BM166" s="102" t="s">
         <v>1375</v>
       </c>
+      <c r="BN166" s="39"/>
     </row>
-    <row r="167" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="91" t="s">
         <v>1376</v>
       </c>
@@ -40884,8 +41117,9 @@
       <c r="BM167" s="102" t="s">
         <v>1390</v>
       </c>
+      <c r="BN167" s="39"/>
     </row>
-    <row r="168" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="91" t="s">
         <v>1391</v>
       </c>
@@ -41067,8 +41301,9 @@
       <c r="BM168" s="102">
         <v>1555479980</v>
       </c>
+      <c r="BN168" s="39"/>
     </row>
-    <row r="169" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="91" t="s">
         <v>1391</v>
       </c>
@@ -41248,8 +41483,9 @@
       <c r="BM169" s="102">
         <v>1555479980</v>
       </c>
+      <c r="BN169" s="39"/>
     </row>
-    <row r="170" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="91" t="s">
         <v>1404</v>
       </c>
@@ -41429,8 +41665,9 @@
       <c r="BM170" s="102">
         <v>1596078369</v>
       </c>
+      <c r="BN170" s="39"/>
     </row>
-    <row r="171" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="91" t="s">
         <v>1404</v>
       </c>
@@ -41614,8 +41851,9 @@
       <c r="BM171" s="102" t="s">
         <v>1418</v>
       </c>
+      <c r="BN171" s="39"/>
     </row>
-    <row r="172" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="91" t="s">
         <v>1419</v>
       </c>
@@ -41795,8 +42033,9 @@
       <c r="BM172" s="102">
         <v>2725057612</v>
       </c>
+      <c r="BN172" s="39"/>
     </row>
-    <row r="173" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="91" t="s">
         <v>1419</v>
       </c>
@@ -41980,8 +42219,9 @@
       <c r="BM173" s="102" t="s">
         <v>1429</v>
       </c>
+      <c r="BN173" s="39"/>
     </row>
-    <row r="174" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="91" t="s">
         <v>1430</v>
       </c>
@@ -42057,8 +42297,9 @@
       <c r="BK174" s="39"/>
       <c r="BL174" s="39"/>
       <c r="BM174" s="102"/>
+      <c r="BN174" s="39"/>
     </row>
-    <row r="175" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="91" t="s">
         <v>1431</v>
       </c>
@@ -42238,8 +42479,9 @@
       <c r="BM175" s="102">
         <v>1598315954</v>
       </c>
+      <c r="BN175" s="39"/>
     </row>
-    <row r="176" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="91" t="s">
         <v>1442</v>
       </c>
@@ -42419,8 +42661,9 @@
       <c r="BM176" s="102">
         <v>1503744731</v>
       </c>
+      <c r="BN176" s="39"/>
     </row>
-    <row r="177" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="91" t="s">
         <v>1442</v>
       </c>
@@ -42602,8 +42845,9 @@
       <c r="BM177" s="102" t="s">
         <v>1454</v>
       </c>
+      <c r="BN177" s="39"/>
     </row>
-    <row r="178" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="91" t="s">
         <v>1455</v>
       </c>
@@ -42785,8 +43029,9 @@
       <c r="BM178" s="102" t="s">
         <v>1466</v>
       </c>
+      <c r="BN178" s="39"/>
     </row>
-    <row r="179" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="91" t="s">
         <v>1467</v>
       </c>
@@ -42968,8 +43213,9 @@
       <c r="BM179" s="102">
         <v>2895554381</v>
       </c>
+      <c r="BN179" s="39"/>
     </row>
-    <row r="180" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="91">
         <v>92700180</v>
       </c>
@@ -43147,8 +43393,9 @@
       <c r="BM180" s="102" t="s">
         <v>1486</v>
       </c>
+      <c r="BN180" s="39"/>
     </row>
-    <row r="181" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="91" t="s">
         <v>1487</v>
       </c>
@@ -43330,8 +43577,9 @@
       <c r="BM181" s="102">
         <v>1542689037</v>
       </c>
+      <c r="BN181" s="39"/>
     </row>
-    <row r="182" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="91" t="s">
         <v>1487</v>
       </c>
@@ -43515,8 +43763,9 @@
       <c r="BM182" s="102">
         <v>1542689037</v>
       </c>
+      <c r="BN182" s="39"/>
     </row>
-    <row r="183" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="91" t="s">
         <v>1487</v>
       </c>
@@ -43698,8 +43947,9 @@
       <c r="BM183" s="102" t="s">
         <v>1499</v>
       </c>
+      <c r="BN183" s="39"/>
     </row>
-    <row r="184" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="91">
         <v>92700181</v>
       </c>
@@ -43879,8 +44129,9 @@
       <c r="BM184" s="102" t="s">
         <v>1499</v>
       </c>
+      <c r="BN184" s="39"/>
     </row>
-    <row r="185" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="91" t="s">
         <v>1500</v>
       </c>
@@ -44064,8 +44315,9 @@
       <c r="BM185" s="102" t="s">
         <v>1512</v>
       </c>
+      <c r="BN185" s="39"/>
     </row>
-    <row r="186" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="91" t="s">
         <v>1513</v>
       </c>
@@ -44245,8 +44497,9 @@
       <c r="BM186" s="102" t="s">
         <v>1524</v>
       </c>
+      <c r="BN186" s="39"/>
     </row>
-    <row r="187" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="91" t="s">
         <v>1513</v>
       </c>
@@ -44430,8 +44683,9 @@
       <c r="BM187" s="102" t="s">
         <v>1524</v>
       </c>
+      <c r="BN187" s="39"/>
     </row>
-    <row r="188" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="91" t="s">
         <v>1528</v>
       </c>
@@ -44613,8 +44867,9 @@
       <c r="BM188" s="102" t="s">
         <v>1540</v>
       </c>
+      <c r="BN188" s="39"/>
     </row>
-    <row r="189" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="91" t="s">
         <v>1541</v>
       </c>
@@ -44796,8 +45051,9 @@
       <c r="BM189" s="38">
         <v>1547424911</v>
       </c>
+      <c r="BN189" s="39"/>
     </row>
-    <row r="190" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="91" t="s">
         <v>1541</v>
       </c>
@@ -44977,8 +45233,9 @@
       <c r="BM190" s="38">
         <v>1547424911</v>
       </c>
+      <c r="BN190" s="39"/>
     </row>
-    <row r="191" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="91">
         <v>92700185</v>
       </c>
@@ -45156,8 +45413,9 @@
       <c r="BM191" s="38">
         <v>1547424911</v>
       </c>
+      <c r="BN191" s="39"/>
     </row>
-    <row r="192" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="91" t="s">
         <v>1557</v>
       </c>
@@ -45339,8 +45597,9 @@
       <c r="BM192" s="38" t="s">
         <v>1567</v>
       </c>
+      <c r="BN192" s="39"/>
     </row>
-    <row r="193" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="91" t="s">
         <v>1568</v>
       </c>
@@ -45524,8 +45783,9 @@
       <c r="BM193" s="38" t="s">
         <v>1580</v>
       </c>
+      <c r="BN193" s="39"/>
     </row>
-    <row r="194" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="91" t="s">
         <v>1581</v>
       </c>
@@ -45707,8 +45967,9 @@
       <c r="BM194" s="38" t="s">
         <v>1592</v>
       </c>
+      <c r="BN194" s="39"/>
     </row>
-    <row r="195" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="91" t="s">
         <v>1581</v>
       </c>
@@ -45892,8 +46153,9 @@
       <c r="BM195" s="38" t="s">
         <v>1592</v>
       </c>
+      <c r="BN195" s="39"/>
     </row>
-    <row r="196" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="91" t="s">
         <v>1594</v>
       </c>
@@ -46075,8 +46337,9 @@
       <c r="BM196" s="38" t="s">
         <v>1603</v>
       </c>
+      <c r="BN196" s="39"/>
     </row>
-    <row r="197" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="91" t="s">
         <v>1604</v>
       </c>
@@ -46258,8 +46521,9 @@
       <c r="BM197" s="102" t="s">
         <v>1615</v>
       </c>
+      <c r="BN197" s="39"/>
     </row>
-    <row r="198" spans="1:65" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:66" s="6" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="91" t="s">
         <v>1604</v>
       </c>
@@ -46443,8 +46707,9 @@
       <c r="BM198" s="102" t="s">
         <v>1615</v>
       </c>
+      <c r="BN198" s="39"/>
     </row>
-    <row r="199" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="91" t="s">
         <v>1617</v>
       </c>
@@ -46628,8 +46893,9 @@
       <c r="BM199" s="102" t="s">
         <v>1627</v>
       </c>
+      <c r="BN199" s="39"/>
     </row>
-    <row r="200" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="91" t="s">
         <v>1628</v>
       </c>
@@ -46813,8 +47079,9 @@
       <c r="BM200" s="102" t="s">
         <v>1636</v>
       </c>
+      <c r="BN200" s="39"/>
     </row>
-    <row r="201" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="122" t="s">
         <v>1637</v>
       </c>
@@ -46998,8 +47265,9 @@
       <c r="BM201" s="102" t="s">
         <v>1647</v>
       </c>
+      <c r="BN201" s="39"/>
     </row>
-    <row r="202" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="122">
         <v>92700194</v>
       </c>
@@ -47181,8 +47449,9 @@
       <c r="BM202" s="102" t="s">
         <v>1657</v>
       </c>
+      <c r="BN202" s="39"/>
     </row>
-    <row r="203" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="122">
         <v>92700194</v>
       </c>
@@ -47362,8 +47631,9 @@
       <c r="BM203" s="102" t="s">
         <v>1657</v>
       </c>
+      <c r="BN203" s="39"/>
     </row>
-    <row r="204" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="122">
         <v>92700194</v>
       </c>
@@ -47543,8 +47813,9 @@
       <c r="BM204" s="102" t="s">
         <v>1657</v>
       </c>
+      <c r="BN204" s="39"/>
     </row>
-    <row r="205" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="122">
         <v>92700194</v>
       </c>
@@ -47722,8 +47993,9 @@
       <c r="BM205" s="102" t="s">
         <v>1657</v>
       </c>
+      <c r="BN205" s="39"/>
     </row>
-    <row r="206" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="122">
         <v>92700195</v>
       </c>
@@ -47905,8 +48177,9 @@
       <c r="BM206" s="102" t="s">
         <v>1671</v>
       </c>
+      <c r="BN206" s="39"/>
     </row>
-    <row r="207" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="122">
         <v>92700196</v>
       </c>
@@ -48086,8 +48359,9 @@
       <c r="BM207" s="102" t="s">
         <v>1680</v>
       </c>
+      <c r="BN207" s="39"/>
     </row>
-    <row r="208" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="122">
         <v>92700197</v>
       </c>
@@ -48267,8 +48541,9 @@
       <c r="BM208" s="102" t="s">
         <v>1690</v>
       </c>
+      <c r="BN208" s="39"/>
     </row>
-    <row r="209" spans="1:65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:66" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="122">
         <v>92700198</v>
       </c>
@@ -48448,8 +48723,9 @@
       <c r="BM209" s="102" t="s">
         <v>1700</v>
       </c>
+      <c r="BN209" s="39"/>
     </row>
-    <row r="210" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="122">
         <v>92700199</v>
       </c>
@@ -48623,8 +48899,9 @@
         <v>1709</v>
       </c>
       <c r="BM210" s="102"/>
+      <c r="BN210" s="39"/>
     </row>
-    <row r="211" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="122">
         <v>92700200</v>
       </c>
@@ -48804,8 +49081,9 @@
       <c r="BM211" s="102" t="s">
         <v>1719</v>
       </c>
+      <c r="BN211" s="39"/>
     </row>
-    <row r="212" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="122">
         <v>92700201</v>
       </c>
@@ -48987,8 +49265,9 @@
       <c r="BM212" s="102" t="s">
         <v>1731</v>
       </c>
+      <c r="BN212" s="39"/>
     </row>
-    <row r="213" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="122">
         <v>92700202</v>
       </c>
@@ -49166,8 +49445,9 @@
       <c r="BM213" s="102" t="s">
         <v>1742</v>
       </c>
+      <c r="BN213" s="39"/>
     </row>
-    <row r="214" spans="1:65" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:66" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="122">
         <v>92700203</v>
       </c>
@@ -49332,8 +49612,9 @@
       <c r="BM214" s="102" t="s">
         <v>1753</v>
       </c>
+      <c r="BN214" s="39"/>
     </row>
-    <row r="215" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="122">
         <v>92700204</v>
       </c>
@@ -49498,8 +49779,9 @@
       <c r="BM215" s="102" t="s">
         <v>1763</v>
       </c>
+      <c r="BN215" s="39"/>
     </row>
-    <row r="216" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="122">
         <v>92700204</v>
       </c>
@@ -49668,8 +49950,9 @@
       <c r="BM216" s="102" t="s">
         <v>1763</v>
       </c>
+      <c r="BN216" s="39"/>
     </row>
-    <row r="217" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="122">
         <v>92700205</v>
       </c>
@@ -49833,8 +50116,9 @@
       <c r="BM217" s="102" t="s">
         <v>1777</v>
       </c>
+      <c r="BN217" s="39"/>
     </row>
-    <row r="218" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="122">
         <v>92700205</v>
       </c>
@@ -50000,8 +50284,9 @@
       <c r="BM218" s="102" t="s">
         <v>1777</v>
       </c>
+      <c r="BN218" s="39"/>
     </row>
-    <row r="219" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="122">
         <v>92700206</v>
       </c>
@@ -50177,8 +50462,9 @@
       <c r="BM219" s="102" t="s">
         <v>1787</v>
       </c>
+      <c r="BN219" s="39"/>
     </row>
-    <row r="220" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="122">
         <v>92700206</v>
       </c>
@@ -50356,8 +50642,9 @@
       <c r="BM220" s="102" t="s">
         <v>1787</v>
       </c>
+      <c r="BN220" s="39"/>
     </row>
-    <row r="221" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="122">
         <v>92700206</v>
       </c>
@@ -50533,8 +50820,9 @@
       <c r="BM221" s="102" t="s">
         <v>1787</v>
       </c>
+      <c r="BN221" s="39"/>
     </row>
-    <row r="222" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="122">
         <v>92700207</v>
       </c>
@@ -50702,8 +50990,9 @@
       <c r="BM222" s="102" t="s">
         <v>1798</v>
       </c>
+      <c r="BN222" s="39"/>
     </row>
-    <row r="223" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="122">
         <v>92700207</v>
       </c>
@@ -50873,8 +51162,9 @@
       <c r="BM223" s="102" t="s">
         <v>1798</v>
       </c>
+      <c r="BN223" s="39"/>
     </row>
-    <row r="224" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A224" s="122">
         <v>92700208</v>
       </c>
@@ -51052,8 +51342,9 @@
       <c r="BM224" s="102" t="s">
         <v>1810</v>
       </c>
+      <c r="BN224" s="39"/>
     </row>
-    <row r="225" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A225" s="122">
         <v>92700209</v>
       </c>
@@ -51222,8 +51513,9 @@
       <c r="BM225" s="102" t="s">
         <v>1820</v>
       </c>
+      <c r="BN225" s="39"/>
     </row>
-    <row r="226" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="122">
         <v>92700210</v>
       </c>
@@ -51389,8 +51681,9 @@
       <c r="BM226" s="102" t="s">
         <v>1831</v>
       </c>
+      <c r="BN226" s="39"/>
     </row>
-    <row r="227" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A227" s="122">
         <v>92700210</v>
       </c>
@@ -51556,8 +51849,9 @@
       <c r="BM227" s="102" t="s">
         <v>1831</v>
       </c>
+      <c r="BN227" s="39"/>
     </row>
-    <row r="228" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="122">
         <v>92700211</v>
       </c>
@@ -51723,8 +52017,9 @@
       <c r="BM228" s="102" t="s">
         <v>1841</v>
       </c>
+      <c r="BN228" s="39"/>
     </row>
-    <row r="229" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="122">
         <v>92700211</v>
       </c>
@@ -51890,8 +52185,9 @@
       <c r="BM229" s="102" t="s">
         <v>1841</v>
       </c>
+      <c r="BN229" s="39"/>
     </row>
-    <row r="230" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="122">
         <v>92700211</v>
       </c>
@@ -52055,8 +52351,9 @@
       <c r="BM230" s="102" t="s">
         <v>1841</v>
       </c>
+      <c r="BN230" s="39"/>
     </row>
-    <row r="231" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="122">
         <v>92700211</v>
       </c>
@@ -52224,8 +52521,9 @@
       <c r="BM231" s="102" t="s">
         <v>1841</v>
       </c>
+      <c r="BN231" s="39"/>
     </row>
-    <row r="232" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="122">
         <v>92700212</v>
       </c>
@@ -52388,8 +52686,9 @@
       <c r="BM232" s="102" t="s">
         <v>1854</v>
       </c>
+      <c r="BN232" s="39"/>
     </row>
-    <row r="233" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="122" t="s">
         <v>1855</v>
       </c>
@@ -52552,8 +52851,9 @@
       <c r="BM233" s="102" t="s">
         <v>1854</v>
       </c>
+      <c r="BN233" s="39"/>
     </row>
-    <row r="234" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:66" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A234" s="122">
         <v>92700212</v>
       </c>
@@ -52716,8 +53016,9 @@
       <c r="BM234" s="102" t="s">
         <v>1854</v>
       </c>
+      <c r="BN234" s="39"/>
     </row>
-    <row r="235" spans="1:65" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:66" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A235" s="122">
         <v>92700213</v>
       </c>
@@ -52868,8 +53169,9 @@
       <c r="BM235" s="102" t="s">
         <v>1866</v>
       </c>
+      <c r="BN235" s="39"/>
     </row>
-    <row r="236" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="122">
         <v>92700214</v>
       </c>
@@ -53020,8 +53322,9 @@
       <c r="BM236" s="102" t="s">
         <v>1876</v>
       </c>
+      <c r="BN236" s="39"/>
     </row>
-    <row r="237" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="122">
         <v>92700214</v>
       </c>
@@ -53172,8 +53475,9 @@
       <c r="BM237" s="102" t="s">
         <v>1876</v>
       </c>
+      <c r="BN237" s="39"/>
     </row>
-    <row r="238" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="122">
         <v>92700214</v>
       </c>
@@ -53326,8 +53630,9 @@
       <c r="BM238" s="102" t="s">
         <v>1876</v>
       </c>
+      <c r="BN238" s="39"/>
     </row>
-    <row r="239" spans="1:65" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="122">
         <v>92700215</v>
       </c>
@@ -53480,8 +53785,9 @@
       <c r="BM239" s="102" t="s">
         <v>1891</v>
       </c>
+      <c r="BN239" s="39"/>
     </row>
-    <row r="240" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="122" t="s">
         <v>1892</v>
       </c>
@@ -53622,8 +53928,9 @@
       <c r="BM240" s="102" t="s">
         <v>1901</v>
       </c>
+      <c r="BN240" s="39"/>
     </row>
-    <row r="241" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="122">
         <v>92700216</v>
       </c>
@@ -53766,8 +54073,9 @@
       <c r="BM241" s="102" t="s">
         <v>1901</v>
       </c>
+      <c r="BN241" s="39"/>
     </row>
-    <row r="242" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="122">
         <v>92700217</v>
       </c>
@@ -53908,8 +54216,9 @@
       <c r="BM242" s="102" t="s">
         <v>1913</v>
       </c>
+      <c r="BN242" s="39"/>
     </row>
-    <row r="243" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="122">
         <v>92700217</v>
       </c>
@@ -54050,8 +54359,9 @@
       <c r="BM243" s="102" t="s">
         <v>1913</v>
       </c>
+      <c r="BN243" s="39"/>
     </row>
-    <row r="244" spans="1:65" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:66" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A244" s="122">
         <v>92700217</v>
       </c>
@@ -54192,8 +54502,9 @@
       <c r="BM244" s="102" t="s">
         <v>1913</v>
       </c>
+      <c r="BN244" s="39"/>
     </row>
-    <row r="245" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="122">
         <v>92700218</v>
       </c>
@@ -54338,8 +54649,9 @@
       <c r="BM245" s="102" t="s">
         <v>1927</v>
       </c>
+      <c r="BN245" s="39"/>
     </row>
-    <row r="246" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="122">
         <v>92700218</v>
       </c>
@@ -54486,8 +54798,9 @@
       <c r="BM246" s="102" t="s">
         <v>1927</v>
       </c>
+      <c r="BN246" s="39"/>
     </row>
-    <row r="247" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="122" t="s">
         <v>1930</v>
       </c>
@@ -54628,8 +54941,9 @@
       <c r="BM247" s="102" t="s">
         <v>1939</v>
       </c>
+      <c r="BN247" s="39"/>
     </row>
-    <row r="248" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="122">
         <v>92700220</v>
       </c>
@@ -54766,8 +55080,9 @@
       </c>
       <c r="BL248" s="39"/>
       <c r="BM248" s="102"/>
+      <c r="BN248" s="39"/>
     </row>
-    <row r="249" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="122" t="s">
         <v>1948</v>
       </c>
@@ -54906,8 +55221,9 @@
       </c>
       <c r="BL249" s="39"/>
       <c r="BM249" s="102"/>
+      <c r="BN249" s="39"/>
     </row>
-    <row r="250" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="122" t="s">
         <v>1948</v>
       </c>
@@ -55044,8 +55360,9 @@
       </c>
       <c r="BL250" s="39"/>
       <c r="BM250" s="102"/>
+      <c r="BN250" s="39"/>
     </row>
-    <row r="251" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A251" s="122">
         <v>92700220</v>
       </c>
@@ -55184,8 +55501,9 @@
       </c>
       <c r="BL251" s="39"/>
       <c r="BM251" s="102"/>
+      <c r="BN251" s="39"/>
     </row>
-    <row r="252" spans="1:65" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:66" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="122" t="s">
         <v>1952</v>
       </c>
@@ -55317,8 +55635,9 @@
       <c r="BK252" s="39"/>
       <c r="BL252" s="39"/>
       <c r="BM252" s="102"/>
+      <c r="BN252" s="39"/>
     </row>
-    <row r="253" spans="1:65" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:66" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="122">
         <v>92700222</v>
       </c>
@@ -55454,8 +55773,9 @@
       <c r="BM253" s="102" t="s">
         <v>1970</v>
       </c>
+      <c r="BN253" s="39"/>
     </row>
-    <row r="254" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="122">
         <v>92700223</v>
       </c>
@@ -55584,8 +55904,9 @@
       <c r="BM254" s="102" t="s">
         <v>1978</v>
       </c>
+      <c r="BN254" s="39"/>
     </row>
-    <row r="255" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="122">
         <v>92700223</v>
       </c>
@@ -55716,8 +56037,9 @@
       <c r="BM255" s="102" t="s">
         <v>1978</v>
       </c>
+      <c r="BN255" s="39"/>
     </row>
-    <row r="256" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="122" t="s">
         <v>1980</v>
       </c>
@@ -55845,8 +56167,9 @@
       <c r="BM256" s="102" t="s">
         <v>1989</v>
       </c>
+      <c r="BN256" s="39"/>
     </row>
-    <row r="257" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="122">
         <v>92700225</v>
       </c>
@@ -55980,8 +56303,9 @@
       <c r="BM257" s="102" t="s">
         <v>1998</v>
       </c>
+      <c r="BN257" s="39"/>
     </row>
-    <row r="258" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="122" t="s">
         <v>1999</v>
       </c>
@@ -56108,8 +56432,9 @@
       <c r="BM258" s="102" t="s">
         <v>2008</v>
       </c>
+      <c r="BN258" s="39"/>
     </row>
-    <row r="259" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="122" t="s">
         <v>2009</v>
       </c>
@@ -56230,8 +56555,9 @@
       <c r="BM259" s="102" t="s">
         <v>2017</v>
       </c>
+      <c r="BN259" s="39"/>
     </row>
-    <row r="260" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="122" t="s">
         <v>2018</v>
       </c>
@@ -56352,8 +56678,9 @@
       <c r="BM260" s="102" t="s">
         <v>2026</v>
       </c>
+      <c r="BN260" s="39"/>
     </row>
-    <row r="261" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="122">
         <v>92700229</v>
       </c>
@@ -56477,8 +56804,9 @@
       <c r="BM261" s="102" t="s">
         <v>2037</v>
       </c>
+      <c r="BN261" s="39"/>
     </row>
-    <row r="262" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="122">
         <v>92700229</v>
       </c>
@@ -56602,8 +56930,9 @@
       <c r="BM262" s="102" t="s">
         <v>2037</v>
       </c>
+      <c r="BN262" s="39"/>
     </row>
-    <row r="263" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="122">
         <v>92700230</v>
       </c>
@@ -56725,8 +57054,9 @@
       <c r="BM263" s="102" t="s">
         <v>2047</v>
       </c>
+      <c r="BN263" s="39"/>
     </row>
-    <row r="264" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="122">
         <v>92700231</v>
       </c>
@@ -56848,8 +57178,9 @@
       <c r="BM264" s="102" t="s">
         <v>2057</v>
       </c>
+      <c r="BN264" s="39"/>
     </row>
-    <row r="265" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="122">
         <v>92700232</v>
       </c>
@@ -56973,8 +57304,9 @@
       <c r="BM265" s="102" t="s">
         <v>2068</v>
       </c>
+      <c r="BN265" s="39"/>
     </row>
-    <row r="266" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="122">
         <v>92700232</v>
       </c>
@@ -57098,8 +57430,9 @@
       <c r="BM266" s="102" t="s">
         <v>2068</v>
       </c>
+      <c r="BN266" s="39"/>
     </row>
-    <row r="267" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="122">
         <v>92700232</v>
       </c>
@@ -57225,8 +57558,9 @@
       <c r="BM267" s="102" t="s">
         <v>2068</v>
       </c>
+      <c r="BN267" s="39"/>
     </row>
-    <row r="268" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="122">
         <v>141891</v>
       </c>
@@ -57348,8 +57682,9 @@
       <c r="BM268" s="102" t="s">
         <v>2081</v>
       </c>
+      <c r="BN268" s="39"/>
     </row>
-    <row r="269" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="122">
         <v>92700233</v>
       </c>
@@ -57405,7 +57740,7 @@
       </c>
       <c r="V269" s="47">
         <f t="shared" ca="1" si="116"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W269" s="97">
         <v>12527400</v>
@@ -57473,8 +57808,9 @@
       <c r="BM269" s="102" t="s">
         <v>2092</v>
       </c>
+      <c r="BN269" s="39"/>
     </row>
-    <row r="270" spans="1:65" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:66" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="122">
         <v>92700234</v>
       </c>
@@ -57598,8 +57934,9 @@
       <c r="BM270" s="102" t="s">
         <v>2102</v>
       </c>
+      <c r="BN270" s="39"/>
     </row>
-    <row r="271" spans="1:65" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:66" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="122">
         <v>92700234</v>
       </c>
@@ -57723,8 +58060,9 @@
       <c r="BM271" s="102" t="s">
         <v>2102</v>
       </c>
+      <c r="BN271" s="39"/>
     </row>
-    <row r="272" spans="1:65" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:66" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="122">
         <v>92700234</v>
       </c>
@@ -57848,8 +58186,9 @@
       <c r="BM272" s="102" t="s">
         <v>2102</v>
       </c>
+      <c r="BN272" s="39"/>
     </row>
-    <row r="273" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="122">
         <v>92700235</v>
       </c>
@@ -57973,8 +58312,9 @@
       <c r="BM273" s="102" t="s">
         <v>2114</v>
       </c>
+      <c r="BN273" s="39"/>
     </row>
-    <row r="274" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="122">
         <v>92700235</v>
       </c>
@@ -58100,8 +58440,9 @@
       <c r="BM274" s="102" t="s">
         <v>2114</v>
       </c>
+      <c r="BN274" s="39"/>
     </row>
-    <row r="275" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="122">
         <v>92700236</v>
       </c>
@@ -58225,8 +58566,9 @@
       <c r="BM275" s="102" t="s">
         <v>2124</v>
       </c>
+      <c r="BN275" s="39"/>
     </row>
-    <row r="276" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A276" s="122">
         <v>92700237</v>
       </c>
@@ -58345,8 +58687,9 @@
       <c r="BM276" s="102" t="s">
         <v>2134</v>
       </c>
+      <c r="BN276" s="39"/>
     </row>
-    <row r="277" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="122">
         <v>92700238</v>
       </c>
@@ -58469,8 +58812,9 @@
       <c r="BM277" s="102" t="s">
         <v>2145</v>
       </c>
+      <c r="BN277" s="39"/>
     </row>
-    <row r="278" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="122">
         <v>92700239</v>
       </c>
@@ -58589,8 +58933,9 @@
       <c r="BM278" s="102" t="s">
         <v>2155</v>
       </c>
+      <c r="BN278" s="39"/>
     </row>
-    <row r="279" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="122">
         <v>92700240</v>
       </c>
@@ -58709,8 +59054,9 @@
       <c r="BM279" s="102" t="s">
         <v>2166</v>
       </c>
+      <c r="BN279" s="39"/>
     </row>
-    <row r="280" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="122">
         <v>92700240</v>
       </c>
@@ -58831,8 +59177,9 @@
       <c r="BM280" s="102" t="s">
         <v>2166</v>
       </c>
+      <c r="BN280" s="39"/>
     </row>
-    <row r="281" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="122">
         <v>92700241</v>
       </c>
@@ -58953,8 +59300,9 @@
       <c r="BM281" s="102" t="s">
         <v>2178</v>
       </c>
+      <c r="BN281" s="39"/>
     </row>
-    <row r="282" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="122">
         <v>92700241</v>
       </c>
@@ -59077,8 +59425,9 @@
       <c r="BM282" s="102" t="s">
         <v>2178</v>
       </c>
+      <c r="BN282" s="39"/>
     </row>
-    <row r="283" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="122" t="s">
         <v>2181</v>
       </c>
@@ -59197,8 +59546,9 @@
       <c r="BM283" s="102" t="s">
         <v>2191</v>
       </c>
+      <c r="BN283" s="39"/>
     </row>
-    <row r="284" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="122">
         <v>92700242</v>
       </c>
@@ -59317,8 +59667,9 @@
       <c r="BM284" s="102" t="s">
         <v>2201</v>
       </c>
+      <c r="BN284" s="39"/>
     </row>
-    <row r="285" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="122">
         <v>92700243</v>
       </c>
@@ -59437,8 +59788,9 @@
       <c r="BM285" s="102" t="s">
         <v>2211</v>
       </c>
+      <c r="BN285" s="39"/>
     </row>
-    <row r="286" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="122">
         <v>92700243</v>
       </c>
@@ -59559,8 +59911,9 @@
       <c r="BM286" s="102" t="s">
         <v>2211</v>
       </c>
+      <c r="BN286" s="39"/>
     </row>
-    <row r="287" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="122">
         <v>92700244</v>
       </c>
@@ -59681,8 +60034,9 @@
       <c r="BM287" s="102" t="s">
         <v>2222</v>
       </c>
+      <c r="BN287" s="39"/>
     </row>
-    <row r="288" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A288" s="122">
         <v>84662</v>
       </c>
@@ -59803,8 +60157,9 @@
       <c r="BM288" s="102" t="s">
         <v>2232</v>
       </c>
+      <c r="BN288" s="39"/>
     </row>
-    <row r="289" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="122">
         <v>92700245</v>
       </c>
@@ -59923,8 +60278,9 @@
       <c r="BM289" s="102" t="s">
         <v>2242</v>
       </c>
+      <c r="BN289" s="39"/>
     </row>
-    <row r="290" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="122">
         <v>92700245</v>
       </c>
@@ -60045,8 +60401,9 @@
       <c r="BM290" s="102" t="s">
         <v>2242</v>
       </c>
+      <c r="BN290" s="39"/>
     </row>
-    <row r="291" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="122">
         <v>92700246</v>
       </c>
@@ -60167,8 +60524,9 @@
       <c r="BM291" s="102" t="s">
         <v>2255</v>
       </c>
+      <c r="BN291" s="39"/>
     </row>
-    <row r="292" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A292" s="122">
         <v>92700246</v>
       </c>
@@ -60289,8 +60647,9 @@
       <c r="BM292" s="102" t="s">
         <v>2255</v>
       </c>
+      <c r="BN292" s="39"/>
     </row>
-    <row r="293" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A293" s="122">
         <v>92700247</v>
       </c>
@@ -60411,8 +60770,9 @@
       <c r="BM293" s="102" t="s">
         <v>2265</v>
       </c>
+      <c r="BN293" s="39"/>
     </row>
-    <row r="294" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="122">
         <v>92700248</v>
       </c>
@@ -60533,8 +60893,9 @@
       <c r="BM294" s="102" t="s">
         <v>2276</v>
       </c>
+      <c r="BN294" s="39"/>
     </row>
-    <row r="295" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="122">
         <v>92700248</v>
       </c>
@@ -60655,8 +61016,9 @@
       <c r="BM295" s="102" t="s">
         <v>2276</v>
       </c>
+      <c r="BN295" s="39"/>
     </row>
-    <row r="296" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A296" s="122">
         <v>92700248</v>
       </c>
@@ -60777,8 +61139,9 @@
       <c r="BM296" s="102" t="s">
         <v>2276</v>
       </c>
+      <c r="BN296" s="39"/>
     </row>
-    <row r="297" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A297" s="122">
         <v>92700249</v>
       </c>
@@ -60899,8 +61262,9 @@
       <c r="BM297" s="102" t="s">
         <v>2287</v>
       </c>
+      <c r="BN297" s="39"/>
     </row>
-    <row r="298" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="122">
         <v>92700250</v>
       </c>
@@ -61021,8 +61385,9 @@
       <c r="BM298" s="102" t="s">
         <v>2297</v>
       </c>
+      <c r="BN298" s="39"/>
     </row>
-    <row r="299" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="122">
         <v>92700251</v>
       </c>
@@ -61139,8 +61504,9 @@
       <c r="BM299" s="102" t="s">
         <v>2306</v>
       </c>
+      <c r="BN299" s="39"/>
     </row>
-    <row r="300" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:66" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="122">
         <v>92700252</v>
       </c>
@@ -61259,8 +61625,9 @@
       <c r="BM300" s="102" t="s">
         <v>2316</v>
       </c>
+      <c r="BN300" s="39"/>
     </row>
-    <row r="301" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A301" s="122">
         <v>92700252</v>
       </c>
@@ -61379,8 +61746,9 @@
       <c r="BM301" s="102" t="s">
         <v>2316</v>
       </c>
+      <c r="BN301" s="39"/>
     </row>
-    <row r="302" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A302" s="122">
         <v>92700253</v>
       </c>
@@ -61501,8 +61869,9 @@
       <c r="BM302" s="102" t="s">
         <v>2325</v>
       </c>
+      <c r="BN302" s="39"/>
     </row>
-    <row r="303" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="122">
         <v>92700254</v>
       </c>
@@ -61619,8 +61988,9 @@
       <c r="BM303" s="102" t="s">
         <v>2335</v>
       </c>
+      <c r="BN303" s="39"/>
     </row>
-    <row r="304" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:66" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="122">
         <v>92700255</v>
       </c>
@@ -61741,8 +62111,9 @@
       <c r="BM304" s="102" t="s">
         <v>2346</v>
       </c>
+      <c r="BN304" s="39"/>
     </row>
-    <row r="305" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="122">
         <v>92700256</v>
       </c>
@@ -61861,8 +62232,9 @@
       <c r="BM305" s="102" t="s">
         <v>2355</v>
       </c>
+      <c r="BN305" s="39"/>
     </row>
-    <row r="306" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A306" s="122">
         <v>92700257</v>
       </c>
@@ -61981,8 +62353,9 @@
       <c r="BM306" s="102" t="s">
         <v>2365</v>
       </c>
+      <c r="BN306" s="39"/>
     </row>
-    <row r="307" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="122">
         <v>92700258</v>
       </c>
@@ -62101,8 +62474,9 @@
       <c r="BM307" s="102" t="s">
         <v>2375</v>
       </c>
+      <c r="BN307" s="39"/>
     </row>
-    <row r="308" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A308" s="122">
         <v>92700259</v>
       </c>
@@ -62221,8 +62595,9 @@
       <c r="BM308" s="102" t="s">
         <v>2385</v>
       </c>
+      <c r="BN308" s="39"/>
     </row>
-    <row r="309" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="122">
         <v>41679</v>
       </c>
@@ -62335,8 +62710,9 @@
       <c r="BM309" s="102" t="s">
         <v>2395</v>
       </c>
+      <c r="BN309" s="39"/>
     </row>
-    <row r="310" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:66" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A310" s="122">
         <v>92700260</v>
       </c>
@@ -62449,8 +62825,9 @@
       <c r="BM310" s="102" t="s">
         <v>2405</v>
       </c>
+      <c r="BN310" s="39"/>
     </row>
-    <row r="311" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="122">
         <v>92700261</v>
       </c>
@@ -62525,8 +62902,9 @@
       <c r="BK311" s="39"/>
       <c r="BL311" s="39"/>
       <c r="BM311" s="102"/>
+      <c r="BN311" s="39"/>
     </row>
-    <row r="312" spans="1:65" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A312" s="122">
         <v>92700262</v>
       </c>
@@ -62637,8 +63015,9 @@
       <c r="BM312" s="102" t="s">
         <v>2415</v>
       </c>
+      <c r="BN312" s="39"/>
     </row>
-    <row r="313" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="122">
         <v>92700263</v>
       </c>
@@ -62711,8 +63090,9 @@
       <c r="BK313" s="39"/>
       <c r="BL313" s="39"/>
       <c r="BM313" s="102"/>
+      <c r="BN313" s="39"/>
     </row>
-    <row r="314" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="122">
         <v>92700264</v>
       </c>
@@ -62785,8 +63165,9 @@
       <c r="BK314" s="39"/>
       <c r="BL314" s="39"/>
       <c r="BM314" s="102"/>
+      <c r="BN314" s="39"/>
     </row>
-    <row r="315" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="122">
         <v>92700265</v>
       </c>
@@ -62859,8 +63240,9 @@
       <c r="BK315" s="39"/>
       <c r="BL315" s="39"/>
       <c r="BM315" s="102"/>
+      <c r="BN315" s="39"/>
     </row>
-    <row r="316" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="122">
         <v>92700266</v>
       </c>
@@ -62933,8 +63315,9 @@
       <c r="BK316" s="39"/>
       <c r="BL316" s="39"/>
       <c r="BM316" s="102"/>
+      <c r="BN316" s="39"/>
     </row>
-    <row r="317" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="122">
         <v>92700267</v>
       </c>
@@ -63007,8 +63390,9 @@
       <c r="BK317" s="39"/>
       <c r="BL317" s="39"/>
       <c r="BM317" s="102"/>
+      <c r="BN317" s="39"/>
     </row>
-    <row r="318" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="122">
         <v>92700268</v>
       </c>
@@ -63081,8 +63465,9 @@
       <c r="BK318" s="39"/>
       <c r="BL318" s="39"/>
       <c r="BM318" s="102"/>
+      <c r="BN318" s="39"/>
     </row>
-    <row r="319" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="122">
         <v>92700269</v>
       </c>
@@ -63155,8 +63540,9 @@
       <c r="BK319" s="39"/>
       <c r="BL319" s="39"/>
       <c r="BM319" s="102"/>
+      <c r="BN319" s="39"/>
     </row>
-    <row r="320" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="122">
         <v>92700270</v>
       </c>
@@ -63229,8 +63615,9 @@
       <c r="BK320" s="39"/>
       <c r="BL320" s="39"/>
       <c r="BM320" s="102"/>
+      <c r="BN320" s="39"/>
     </row>
-    <row r="321" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="122">
         <v>92700271</v>
       </c>
@@ -63303,8 +63690,9 @@
       <c r="BK321" s="39"/>
       <c r="BL321" s="39"/>
       <c r="BM321" s="102"/>
+      <c r="BN321" s="39"/>
     </row>
-    <row r="322" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="122">
         <v>92700272</v>
       </c>
@@ -63377,8 +63765,9 @@
       <c r="BK322" s="39"/>
       <c r="BL322" s="39"/>
       <c r="BM322" s="102"/>
+      <c r="BN322" s="39"/>
     </row>
-    <row r="323" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="122">
         <v>92700273</v>
       </c>
@@ -63451,8 +63840,9 @@
       <c r="BK323" s="39"/>
       <c r="BL323" s="39"/>
       <c r="BM323" s="102"/>
+      <c r="BN323" s="39"/>
     </row>
-    <row r="324" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="122">
         <v>92700274</v>
       </c>
@@ -63525,8 +63915,9 @@
       <c r="BK324" s="39"/>
       <c r="BL324" s="39"/>
       <c r="BM324" s="102"/>
+      <c r="BN324" s="39"/>
     </row>
-    <row r="325" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="122">
         <v>92700275</v>
       </c>
@@ -63599,8 +63990,9 @@
       <c r="BK325" s="39"/>
       <c r="BL325" s="39"/>
       <c r="BM325" s="102"/>
+      <c r="BN325" s="39"/>
     </row>
-    <row r="326" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="122">
         <v>92700276</v>
       </c>
@@ -63670,6 +64062,7 @@
       <c r="BK326" s="39"/>
       <c r="BL326" s="39"/>
       <c r="BM326" s="102"/>
+      <c r="BN326" s="126"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -64094,10 +64487,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD9096-9953-4FF6-AE9E-18E17D279707}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
